--- a/multi_board/multi_board.xlsx
+++ b/multi_board/multi_board.xlsx
@@ -4,11 +4,10 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="BULLETIN" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="BIG_CATEGORY" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="MID_CATEGORY" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="COMMENT" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="COMMENT_LIST" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="WRITER" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="CATEGORY_LIST" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="COMMENT" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="COMMENT_LIST" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="WRITER" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
   <si>
     <t>BULLETIN_UID</t>
   </si>
@@ -48,10 +47,10 @@
     <t>B1</t>
   </si>
   <si>
-    <t>BC2</t>
+    <t>C1</t>
   </si>
   <si>
-    <t>MC1</t>
+    <t>C5</t>
   </si>
   <si>
     <t>공지</t>
@@ -69,7 +68,10 @@
     <t>B2</t>
   </si>
   <si>
-    <t>MC2</t>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C6</t>
   </si>
   <si>
     <t>손흥민 트레블ㄷㄷ(계정) (2)</t>
@@ -84,25 +86,34 @@
     <t>B3</t>
   </si>
   <si>
-    <t>BC5</t>
+    <t>C3</t>
   </si>
   <si>
-    <t>MC3</t>
+    <t>C7</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
     <t>B5</t>
   </si>
   <si>
-    <t>MC4</t>
+    <t>C9</t>
   </si>
   <si>
-    <t>UID_BIG_CATEGORY</t>
+    <t>UID_CATEGORY</t>
   </si>
   <si>
-    <t>BC1</t>
+    <t>분류</t>
+  </si>
+  <si>
+    <t>상위분류</t>
   </si>
   <si>
     <t>해외반응</t>
@@ -111,13 +122,7 @@
     <t>뉴스</t>
   </si>
   <si>
-    <t>BC3</t>
-  </si>
-  <si>
     <t>영상자료</t>
-  </si>
-  <si>
-    <t>BC4</t>
   </si>
   <si>
     <t>유머엽기</t>
@@ -126,19 +131,10 @@
     <t>커뮤니티</t>
   </si>
   <si>
-    <t>BC6</t>
-  </si>
-  <si>
     <t>스포츠</t>
   </si>
   <si>
-    <t>BC7</t>
-  </si>
-  <si>
     <t>팬빌리지</t>
-  </si>
-  <si>
-    <t>UID_MID_CATEGORY</t>
   </si>
   <si>
     <t>국내뉴스</t>
@@ -147,7 +143,13 @@
     <t>해외뉴스</t>
   </si>
   <si>
+    <t>C10</t>
+  </si>
+  <si>
     <t>잡담</t>
+  </si>
+  <si>
+    <t>C11</t>
   </si>
   <si>
     <t>이슈</t>
@@ -157,18 +159,6 @@
   </si>
   <si>
     <t>UID_BULLETIN</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
   </si>
   <si>
     <t>WRITER</t>
@@ -217,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm-dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -274,6 +264,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -318,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -371,10 +367,14 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -402,10 +402,6 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -724,19 +720,19 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="11">
         <v>105795.0</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="13">
         <v>0.44722222222222224</v>
@@ -745,7 +741,7 @@
         <v>481.0</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="5"/>
@@ -768,13 +764,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>12</v>
@@ -815,22 +811,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11">
         <v>105795.0</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="13">
         <v>0.44722222222222224</v>
@@ -839,7 +835,7 @@
         <v>481.0</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="5"/>
@@ -862,13 +858,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
@@ -29812,77 +29808,3098 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
+      <c r="B9" s="19" t="s">
+        <v>40</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>28</v>
+      <c r="C9" s="17" t="s">
+        <v>10</v>
       </c>
-      <c r="B2" s="17" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>10</v>
+      <c r="B10" s="19" t="s">
+        <v>41</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>30</v>
+      <c r="C10" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>31</v>
+    <row r="11">
+      <c r="A11" s="17" t="s">
+        <v>42</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>32</v>
+      <c r="B11" s="19" t="s">
+        <v>43</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="17" t="s">
-        <v>33</v>
+      <c r="C11" s="17" t="s">
+        <v>17</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>34</v>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
+        <v>44</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="17" t="s">
-        <v>22</v>
+      <c r="B12" s="19" t="s">
+        <v>45</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>35</v>
+      <c r="C12" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>39</v>
-      </c>
+    <row r="13">
+      <c r="B13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="20"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="20"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="20"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="20"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="20"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="20"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="20"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="20"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="20"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="20"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="20"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="20"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="20"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="20"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="20"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="20"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="20"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="20"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="20"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="20"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="20"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="20"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="20"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="20"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="20"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="20"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="20"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="20"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="20"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="20"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="20"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="20"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="20"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="20"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="20"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="20"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="20"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="20"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="20"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="20"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="20"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="20"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="20"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="20"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="20"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="20"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="20"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="20"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="20"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="20"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="20"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="20"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="20"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="20"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="20"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="20"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="20"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="20"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="20"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="20"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="20"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="20"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="20"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="20"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="20"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="20"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="20"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="20"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="20"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="20"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="20"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="20"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="20"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="20"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="20"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="20"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="20"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="20"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="20"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="20"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="20"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="20"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="20"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="20"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="20"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="20"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="20"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="20"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="20"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="20"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="20"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="20"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="20"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="20"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="20"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="20"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="20"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="20"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="20"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="20"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="20"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="20"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="20"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="20"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="20"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="20"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="20"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="20"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="20"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="20"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="20"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="20"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="20"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="20"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="20"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="20"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="20"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="20"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="20"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="20"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="20"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="20"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="20"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="20"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="20"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="20"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="20"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="20"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="20"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="20"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="20"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="20"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="20"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="20"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="20"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="20"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="20"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="20"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="20"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="20"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="20"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="20"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="20"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="20"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="20"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="20"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="20"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="20"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="20"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="20"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="20"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="20"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="20"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="20"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="20"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="20"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="20"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="20"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="20"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="20"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="20"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="20"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="20"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="20"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="20"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="20"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="20"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="20"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="20"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="20"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="20"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="20"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="20"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="20"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="20"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="20"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="20"/>
+    </row>
+    <row r="202">
+      <c r="B202" s="20"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="20"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="20"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="20"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="20"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="20"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="20"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="20"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="20"/>
+    </row>
+    <row r="211">
+      <c r="B211" s="20"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="20"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="20"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="20"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="20"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="20"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="20"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="20"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="20"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="20"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="20"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="20"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="20"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="20"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="20"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="20"/>
+    </row>
+    <row r="227">
+      <c r="B227" s="20"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="20"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="20"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="20"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="20"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="20"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="20"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="20"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="20"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="20"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="20"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="20"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="20"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="20"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="20"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="20"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="20"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="20"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="20"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="20"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="20"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="20"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="20"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="20"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="20"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="20"/>
+    </row>
+    <row r="253">
+      <c r="B253" s="20"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="20"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="20"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="20"/>
+    </row>
+    <row r="257">
+      <c r="B257" s="20"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="20"/>
+    </row>
+    <row r="259">
+      <c r="B259" s="20"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="20"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="20"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="20"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="20"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="20"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="20"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="20"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="20"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="20"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="20"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="20"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="20"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="20"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="20"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="20"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="20"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="20"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="20"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="20"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="20"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="20"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="20"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="20"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="20"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="20"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="20"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="20"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="20"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="20"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="20"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="20"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="20"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="20"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="20"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="20"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="20"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="20"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="20"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="20"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="20"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="20"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="20"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="20"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="20"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="20"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="20"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="20"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="20"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="20"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="20"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="20"/>
+    </row>
+    <row r="311">
+      <c r="B311" s="20"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="20"/>
+    </row>
+    <row r="313">
+      <c r="B313" s="20"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="20"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="20"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="20"/>
+    </row>
+    <row r="317">
+      <c r="B317" s="20"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="20"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="20"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="20"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="20"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="20"/>
+    </row>
+    <row r="323">
+      <c r="B323" s="20"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="20"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="20"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="20"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="20"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="20"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="20"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="20"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="20"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="20"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="20"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="20"/>
+    </row>
+    <row r="335">
+      <c r="B335" s="20"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="20"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="20"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="20"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="20"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="20"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="20"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="20"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="20"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="20"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="20"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="20"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="20"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="20"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="20"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="20"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="20"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="20"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="20"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="20"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="20"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="20"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="20"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="20"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="20"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="20"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="20"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="20"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="20"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="20"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="20"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="20"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="20"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="20"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="20"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="20"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="20"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="20"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="20"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="20"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="20"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="20"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="20"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="20"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="20"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="20"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="20"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="20"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="20"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="20"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="20"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="20"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="20"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="20"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="20"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="20"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="20"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="20"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="20"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="20"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="20"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="20"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="20"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="20"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="20"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="20"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="20"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="20"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="20"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="20"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="20"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="20"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="20"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="20"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="20"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="20"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="20"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="20"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="20"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="20"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="20"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="20"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="20"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="20"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="20"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="20"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="20"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="20"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="20"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="20"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="20"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="20"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="20"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="20"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="20"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="20"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="20"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="20"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="20"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="20"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="20"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="20"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="20"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="20"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="20"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="20"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="20"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="20"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="20"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="20"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="20"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="20"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="20"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="20"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="20"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="20"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="20"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="20"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="20"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="20"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="20"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="20"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="20"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="20"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="20"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="20"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="20"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="20"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="20"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="20"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="20"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="20"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="20"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="20"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="20"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="20"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="20"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="20"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="20"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="20"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="20"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="20"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="20"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="20"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="20"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="20"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="20"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="20"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="20"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="20"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="20"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="20"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="20"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="20"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="20"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="20"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="20"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="20"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="20"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="20"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="20"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="20"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="20"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="20"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="20"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="20"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="20"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="20"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="20"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="20"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="20"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="20"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="20"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="20"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="20"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="20"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="20"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="20"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="20"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="20"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="20"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="20"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="20"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="20"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="20"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="20"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="20"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="20"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="20"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="20"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="20"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="20"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="20"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="20"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="20"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="20"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="20"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="20"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="20"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="20"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="20"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="20"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="20"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="20"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="20"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="20"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="20"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="20"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="20"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="20"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="20"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="20"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="20"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="20"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="20"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="20"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="20"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="20"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="20"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="20"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="20"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="20"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="20"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="20"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="20"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="20"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="20"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="20"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="20"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="20"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="20"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="20"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="20"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="20"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="20"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="20"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="20"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="20"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="20"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="20"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="20"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="20"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="20"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="20"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="20"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="20"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="20"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="20"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="20"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="20"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="20"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="20"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="20"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="20"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="20"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="20"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="20"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="20"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="20"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="20"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="20"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="20"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="20"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="20"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="20"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="20"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="20"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="20"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="20"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="20"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="20"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="20"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="20"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="20"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="20"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="20"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="20"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="20"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="20"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="20"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="20"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="20"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="20"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="20"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="20"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="20"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="20"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="20"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="20"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="20"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="20"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="20"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="20"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="20"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="20"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="20"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="20"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="20"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="20"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="20"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="20"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="20"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="20"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="20"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="20"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="20"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="20"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="20"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="20"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="20"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="20"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="20"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="20"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="20"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="20"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="20"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="20"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="20"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="20"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="20"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="20"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="20"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="20"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="20"/>
+    </row>
+    <row r="659">
+      <c r="B659" s="20"/>
+    </row>
+    <row r="660">
+      <c r="B660" s="20"/>
+    </row>
+    <row r="661">
+      <c r="B661" s="20"/>
+    </row>
+    <row r="662">
+      <c r="B662" s="20"/>
+    </row>
+    <row r="663">
+      <c r="B663" s="20"/>
+    </row>
+    <row r="664">
+      <c r="B664" s="20"/>
+    </row>
+    <row r="665">
+      <c r="B665" s="20"/>
+    </row>
+    <row r="666">
+      <c r="B666" s="20"/>
+    </row>
+    <row r="667">
+      <c r="B667" s="20"/>
+    </row>
+    <row r="668">
+      <c r="B668" s="20"/>
+    </row>
+    <row r="669">
+      <c r="B669" s="20"/>
+    </row>
+    <row r="670">
+      <c r="B670" s="20"/>
+    </row>
+    <row r="671">
+      <c r="B671" s="20"/>
+    </row>
+    <row r="672">
+      <c r="B672" s="20"/>
+    </row>
+    <row r="673">
+      <c r="B673" s="20"/>
+    </row>
+    <row r="674">
+      <c r="B674" s="20"/>
+    </row>
+    <row r="675">
+      <c r="B675" s="20"/>
+    </row>
+    <row r="676">
+      <c r="B676" s="20"/>
+    </row>
+    <row r="677">
+      <c r="B677" s="20"/>
+    </row>
+    <row r="678">
+      <c r="B678" s="20"/>
+    </row>
+    <row r="679">
+      <c r="B679" s="20"/>
+    </row>
+    <row r="680">
+      <c r="B680" s="20"/>
+    </row>
+    <row r="681">
+      <c r="B681" s="20"/>
+    </row>
+    <row r="682">
+      <c r="B682" s="20"/>
+    </row>
+    <row r="683">
+      <c r="B683" s="20"/>
+    </row>
+    <row r="684">
+      <c r="B684" s="20"/>
+    </row>
+    <row r="685">
+      <c r="B685" s="20"/>
+    </row>
+    <row r="686">
+      <c r="B686" s="20"/>
+    </row>
+    <row r="687">
+      <c r="B687" s="20"/>
+    </row>
+    <row r="688">
+      <c r="B688" s="20"/>
+    </row>
+    <row r="689">
+      <c r="B689" s="20"/>
+    </row>
+    <row r="690">
+      <c r="B690" s="20"/>
+    </row>
+    <row r="691">
+      <c r="B691" s="20"/>
+    </row>
+    <row r="692">
+      <c r="B692" s="20"/>
+    </row>
+    <row r="693">
+      <c r="B693" s="20"/>
+    </row>
+    <row r="694">
+      <c r="B694" s="20"/>
+    </row>
+    <row r="695">
+      <c r="B695" s="20"/>
+    </row>
+    <row r="696">
+      <c r="B696" s="20"/>
+    </row>
+    <row r="697">
+      <c r="B697" s="20"/>
+    </row>
+    <row r="698">
+      <c r="B698" s="20"/>
+    </row>
+    <row r="699">
+      <c r="B699" s="20"/>
+    </row>
+    <row r="700">
+      <c r="B700" s="20"/>
+    </row>
+    <row r="701">
+      <c r="B701" s="20"/>
+    </row>
+    <row r="702">
+      <c r="B702" s="20"/>
+    </row>
+    <row r="703">
+      <c r="B703" s="20"/>
+    </row>
+    <row r="704">
+      <c r="B704" s="20"/>
+    </row>
+    <row r="705">
+      <c r="B705" s="20"/>
+    </row>
+    <row r="706">
+      <c r="B706" s="20"/>
+    </row>
+    <row r="707">
+      <c r="B707" s="20"/>
+    </row>
+    <row r="708">
+      <c r="B708" s="20"/>
+    </row>
+    <row r="709">
+      <c r="B709" s="20"/>
+    </row>
+    <row r="710">
+      <c r="B710" s="20"/>
+    </row>
+    <row r="711">
+      <c r="B711" s="20"/>
+    </row>
+    <row r="712">
+      <c r="B712" s="20"/>
+    </row>
+    <row r="713">
+      <c r="B713" s="20"/>
+    </row>
+    <row r="714">
+      <c r="B714" s="20"/>
+    </row>
+    <row r="715">
+      <c r="B715" s="20"/>
+    </row>
+    <row r="716">
+      <c r="B716" s="20"/>
+    </row>
+    <row r="717">
+      <c r="B717" s="20"/>
+    </row>
+    <row r="718">
+      <c r="B718" s="20"/>
+    </row>
+    <row r="719">
+      <c r="B719" s="20"/>
+    </row>
+    <row r="720">
+      <c r="B720" s="20"/>
+    </row>
+    <row r="721">
+      <c r="B721" s="20"/>
+    </row>
+    <row r="722">
+      <c r="B722" s="20"/>
+    </row>
+    <row r="723">
+      <c r="B723" s="20"/>
+    </row>
+    <row r="724">
+      <c r="B724" s="20"/>
+    </row>
+    <row r="725">
+      <c r="B725" s="20"/>
+    </row>
+    <row r="726">
+      <c r="B726" s="20"/>
+    </row>
+    <row r="727">
+      <c r="B727" s="20"/>
+    </row>
+    <row r="728">
+      <c r="B728" s="20"/>
+    </row>
+    <row r="729">
+      <c r="B729" s="20"/>
+    </row>
+    <row r="730">
+      <c r="B730" s="20"/>
+    </row>
+    <row r="731">
+      <c r="B731" s="20"/>
+    </row>
+    <row r="732">
+      <c r="B732" s="20"/>
+    </row>
+    <row r="733">
+      <c r="B733" s="20"/>
+    </row>
+    <row r="734">
+      <c r="B734" s="20"/>
+    </row>
+    <row r="735">
+      <c r="B735" s="20"/>
+    </row>
+    <row r="736">
+      <c r="B736" s="20"/>
+    </row>
+    <row r="737">
+      <c r="B737" s="20"/>
+    </row>
+    <row r="738">
+      <c r="B738" s="20"/>
+    </row>
+    <row r="739">
+      <c r="B739" s="20"/>
+    </row>
+    <row r="740">
+      <c r="B740" s="20"/>
+    </row>
+    <row r="741">
+      <c r="B741" s="20"/>
+    </row>
+    <row r="742">
+      <c r="B742" s="20"/>
+    </row>
+    <row r="743">
+      <c r="B743" s="20"/>
+    </row>
+    <row r="744">
+      <c r="B744" s="20"/>
+    </row>
+    <row r="745">
+      <c r="B745" s="20"/>
+    </row>
+    <row r="746">
+      <c r="B746" s="20"/>
+    </row>
+    <row r="747">
+      <c r="B747" s="20"/>
+    </row>
+    <row r="748">
+      <c r="B748" s="20"/>
+    </row>
+    <row r="749">
+      <c r="B749" s="20"/>
+    </row>
+    <row r="750">
+      <c r="B750" s="20"/>
+    </row>
+    <row r="751">
+      <c r="B751" s="20"/>
+    </row>
+    <row r="752">
+      <c r="B752" s="20"/>
+    </row>
+    <row r="753">
+      <c r="B753" s="20"/>
+    </row>
+    <row r="754">
+      <c r="B754" s="20"/>
+    </row>
+    <row r="755">
+      <c r="B755" s="20"/>
+    </row>
+    <row r="756">
+      <c r="B756" s="20"/>
+    </row>
+    <row r="757">
+      <c r="B757" s="20"/>
+    </row>
+    <row r="758">
+      <c r="B758" s="20"/>
+    </row>
+    <row r="759">
+      <c r="B759" s="20"/>
+    </row>
+    <row r="760">
+      <c r="B760" s="20"/>
+    </row>
+    <row r="761">
+      <c r="B761" s="20"/>
+    </row>
+    <row r="762">
+      <c r="B762" s="20"/>
+    </row>
+    <row r="763">
+      <c r="B763" s="20"/>
+    </row>
+    <row r="764">
+      <c r="B764" s="20"/>
+    </row>
+    <row r="765">
+      <c r="B765" s="20"/>
+    </row>
+    <row r="766">
+      <c r="B766" s="20"/>
+    </row>
+    <row r="767">
+      <c r="B767" s="20"/>
+    </row>
+    <row r="768">
+      <c r="B768" s="20"/>
+    </row>
+    <row r="769">
+      <c r="B769" s="20"/>
+    </row>
+    <row r="770">
+      <c r="B770" s="20"/>
+    </row>
+    <row r="771">
+      <c r="B771" s="20"/>
+    </row>
+    <row r="772">
+      <c r="B772" s="20"/>
+    </row>
+    <row r="773">
+      <c r="B773" s="20"/>
+    </row>
+    <row r="774">
+      <c r="B774" s="20"/>
+    </row>
+    <row r="775">
+      <c r="B775" s="20"/>
+    </row>
+    <row r="776">
+      <c r="B776" s="20"/>
+    </row>
+    <row r="777">
+      <c r="B777" s="20"/>
+    </row>
+    <row r="778">
+      <c r="B778" s="20"/>
+    </row>
+    <row r="779">
+      <c r="B779" s="20"/>
+    </row>
+    <row r="780">
+      <c r="B780" s="20"/>
+    </row>
+    <row r="781">
+      <c r="B781" s="20"/>
+    </row>
+    <row r="782">
+      <c r="B782" s="20"/>
+    </row>
+    <row r="783">
+      <c r="B783" s="20"/>
+    </row>
+    <row r="784">
+      <c r="B784" s="20"/>
+    </row>
+    <row r="785">
+      <c r="B785" s="20"/>
+    </row>
+    <row r="786">
+      <c r="B786" s="20"/>
+    </row>
+    <row r="787">
+      <c r="B787" s="20"/>
+    </row>
+    <row r="788">
+      <c r="B788" s="20"/>
+    </row>
+    <row r="789">
+      <c r="B789" s="20"/>
+    </row>
+    <row r="790">
+      <c r="B790" s="20"/>
+    </row>
+    <row r="791">
+      <c r="B791" s="20"/>
+    </row>
+    <row r="792">
+      <c r="B792" s="20"/>
+    </row>
+    <row r="793">
+      <c r="B793" s="20"/>
+    </row>
+    <row r="794">
+      <c r="B794" s="20"/>
+    </row>
+    <row r="795">
+      <c r="B795" s="20"/>
+    </row>
+    <row r="796">
+      <c r="B796" s="20"/>
+    </row>
+    <row r="797">
+      <c r="B797" s="20"/>
+    </row>
+    <row r="798">
+      <c r="B798" s="20"/>
+    </row>
+    <row r="799">
+      <c r="B799" s="20"/>
+    </row>
+    <row r="800">
+      <c r="B800" s="20"/>
+    </row>
+    <row r="801">
+      <c r="B801" s="20"/>
+    </row>
+    <row r="802">
+      <c r="B802" s="20"/>
+    </row>
+    <row r="803">
+      <c r="B803" s="20"/>
+    </row>
+    <row r="804">
+      <c r="B804" s="20"/>
+    </row>
+    <row r="805">
+      <c r="B805" s="20"/>
+    </row>
+    <row r="806">
+      <c r="B806" s="20"/>
+    </row>
+    <row r="807">
+      <c r="B807" s="20"/>
+    </row>
+    <row r="808">
+      <c r="B808" s="20"/>
+    </row>
+    <row r="809">
+      <c r="B809" s="20"/>
+    </row>
+    <row r="810">
+      <c r="B810" s="20"/>
+    </row>
+    <row r="811">
+      <c r="B811" s="20"/>
+    </row>
+    <row r="812">
+      <c r="B812" s="20"/>
+    </row>
+    <row r="813">
+      <c r="B813" s="20"/>
+    </row>
+    <row r="814">
+      <c r="B814" s="20"/>
+    </row>
+    <row r="815">
+      <c r="B815" s="20"/>
+    </row>
+    <row r="816">
+      <c r="B816" s="20"/>
+    </row>
+    <row r="817">
+      <c r="B817" s="20"/>
+    </row>
+    <row r="818">
+      <c r="B818" s="20"/>
+    </row>
+    <row r="819">
+      <c r="B819" s="20"/>
+    </row>
+    <row r="820">
+      <c r="B820" s="20"/>
+    </row>
+    <row r="821">
+      <c r="B821" s="20"/>
+    </row>
+    <row r="822">
+      <c r="B822" s="20"/>
+    </row>
+    <row r="823">
+      <c r="B823" s="20"/>
+    </row>
+    <row r="824">
+      <c r="B824" s="20"/>
+    </row>
+    <row r="825">
+      <c r="B825" s="20"/>
+    </row>
+    <row r="826">
+      <c r="B826" s="20"/>
+    </row>
+    <row r="827">
+      <c r="B827" s="20"/>
+    </row>
+    <row r="828">
+      <c r="B828" s="20"/>
+    </row>
+    <row r="829">
+      <c r="B829" s="20"/>
+    </row>
+    <row r="830">
+      <c r="B830" s="20"/>
+    </row>
+    <row r="831">
+      <c r="B831" s="20"/>
+    </row>
+    <row r="832">
+      <c r="B832" s="20"/>
+    </row>
+    <row r="833">
+      <c r="B833" s="20"/>
+    </row>
+    <row r="834">
+      <c r="B834" s="20"/>
+    </row>
+    <row r="835">
+      <c r="B835" s="20"/>
+    </row>
+    <row r="836">
+      <c r="B836" s="20"/>
+    </row>
+    <row r="837">
+      <c r="B837" s="20"/>
+    </row>
+    <row r="838">
+      <c r="B838" s="20"/>
+    </row>
+    <row r="839">
+      <c r="B839" s="20"/>
+    </row>
+    <row r="840">
+      <c r="B840" s="20"/>
+    </row>
+    <row r="841">
+      <c r="B841" s="20"/>
+    </row>
+    <row r="842">
+      <c r="B842" s="20"/>
+    </row>
+    <row r="843">
+      <c r="B843" s="20"/>
+    </row>
+    <row r="844">
+      <c r="B844" s="20"/>
+    </row>
+    <row r="845">
+      <c r="B845" s="20"/>
+    </row>
+    <row r="846">
+      <c r="B846" s="20"/>
+    </row>
+    <row r="847">
+      <c r="B847" s="20"/>
+    </row>
+    <row r="848">
+      <c r="B848" s="20"/>
+    </row>
+    <row r="849">
+      <c r="B849" s="20"/>
+    </row>
+    <row r="850">
+      <c r="B850" s="20"/>
+    </row>
+    <row r="851">
+      <c r="B851" s="20"/>
+    </row>
+    <row r="852">
+      <c r="B852" s="20"/>
+    </row>
+    <row r="853">
+      <c r="B853" s="20"/>
+    </row>
+    <row r="854">
+      <c r="B854" s="20"/>
+    </row>
+    <row r="855">
+      <c r="B855" s="20"/>
+    </row>
+    <row r="856">
+      <c r="B856" s="20"/>
+    </row>
+    <row r="857">
+      <c r="B857" s="20"/>
+    </row>
+    <row r="858">
+      <c r="B858" s="20"/>
+    </row>
+    <row r="859">
+      <c r="B859" s="20"/>
+    </row>
+    <row r="860">
+      <c r="B860" s="20"/>
+    </row>
+    <row r="861">
+      <c r="B861" s="20"/>
+    </row>
+    <row r="862">
+      <c r="B862" s="20"/>
+    </row>
+    <row r="863">
+      <c r="B863" s="20"/>
+    </row>
+    <row r="864">
+      <c r="B864" s="20"/>
+    </row>
+    <row r="865">
+      <c r="B865" s="20"/>
+    </row>
+    <row r="866">
+      <c r="B866" s="20"/>
+    </row>
+    <row r="867">
+      <c r="B867" s="20"/>
+    </row>
+    <row r="868">
+      <c r="B868" s="20"/>
+    </row>
+    <row r="869">
+      <c r="B869" s="20"/>
+    </row>
+    <row r="870">
+      <c r="B870" s="20"/>
+    </row>
+    <row r="871">
+      <c r="B871" s="20"/>
+    </row>
+    <row r="872">
+      <c r="B872" s="20"/>
+    </row>
+    <row r="873">
+      <c r="B873" s="20"/>
+    </row>
+    <row r="874">
+      <c r="B874" s="20"/>
+    </row>
+    <row r="875">
+      <c r="B875" s="20"/>
+    </row>
+    <row r="876">
+      <c r="B876" s="20"/>
+    </row>
+    <row r="877">
+      <c r="B877" s="20"/>
+    </row>
+    <row r="878">
+      <c r="B878" s="20"/>
+    </row>
+    <row r="879">
+      <c r="B879" s="20"/>
+    </row>
+    <row r="880">
+      <c r="B880" s="20"/>
+    </row>
+    <row r="881">
+      <c r="B881" s="20"/>
+    </row>
+    <row r="882">
+      <c r="B882" s="20"/>
+    </row>
+    <row r="883">
+      <c r="B883" s="20"/>
+    </row>
+    <row r="884">
+      <c r="B884" s="20"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="20"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="20"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="20"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="20"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="20"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="20"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="20"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="20"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="20"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="20"/>
+    </row>
+    <row r="895">
+      <c r="B895" s="20"/>
+    </row>
+    <row r="896">
+      <c r="B896" s="20"/>
+    </row>
+    <row r="897">
+      <c r="B897" s="20"/>
+    </row>
+    <row r="898">
+      <c r="B898" s="20"/>
+    </row>
+    <row r="899">
+      <c r="B899" s="20"/>
+    </row>
+    <row r="900">
+      <c r="B900" s="20"/>
+    </row>
+    <row r="901">
+      <c r="B901" s="20"/>
+    </row>
+    <row r="902">
+      <c r="B902" s="20"/>
+    </row>
+    <row r="903">
+      <c r="B903" s="20"/>
+    </row>
+    <row r="904">
+      <c r="B904" s="20"/>
+    </row>
+    <row r="905">
+      <c r="B905" s="20"/>
+    </row>
+    <row r="906">
+      <c r="B906" s="20"/>
+    </row>
+    <row r="907">
+      <c r="B907" s="20"/>
+    </row>
+    <row r="908">
+      <c r="B908" s="20"/>
+    </row>
+    <row r="909">
+      <c r="B909" s="20"/>
+    </row>
+    <row r="910">
+      <c r="B910" s="20"/>
+    </row>
+    <row r="911">
+      <c r="B911" s="20"/>
+    </row>
+    <row r="912">
+      <c r="B912" s="20"/>
+    </row>
+    <row r="913">
+      <c r="B913" s="20"/>
+    </row>
+    <row r="914">
+      <c r="B914" s="20"/>
+    </row>
+    <row r="915">
+      <c r="B915" s="20"/>
+    </row>
+    <row r="916">
+      <c r="B916" s="20"/>
+    </row>
+    <row r="917">
+      <c r="B917" s="20"/>
+    </row>
+    <row r="918">
+      <c r="B918" s="20"/>
+    </row>
+    <row r="919">
+      <c r="B919" s="20"/>
+    </row>
+    <row r="920">
+      <c r="B920" s="20"/>
+    </row>
+    <row r="921">
+      <c r="B921" s="20"/>
+    </row>
+    <row r="922">
+      <c r="B922" s="20"/>
+    </row>
+    <row r="923">
+      <c r="B923" s="20"/>
+    </row>
+    <row r="924">
+      <c r="B924" s="20"/>
+    </row>
+    <row r="925">
+      <c r="B925" s="20"/>
+    </row>
+    <row r="926">
+      <c r="B926" s="20"/>
+    </row>
+    <row r="927">
+      <c r="B927" s="20"/>
+    </row>
+    <row r="928">
+      <c r="B928" s="20"/>
+    </row>
+    <row r="929">
+      <c r="B929" s="20"/>
+    </row>
+    <row r="930">
+      <c r="B930" s="20"/>
+    </row>
+    <row r="931">
+      <c r="B931" s="20"/>
+    </row>
+    <row r="932">
+      <c r="B932" s="20"/>
+    </row>
+    <row r="933">
+      <c r="B933" s="20"/>
+    </row>
+    <row r="934">
+      <c r="B934" s="20"/>
+    </row>
+    <row r="935">
+      <c r="B935" s="20"/>
+    </row>
+    <row r="936">
+      <c r="B936" s="20"/>
+    </row>
+    <row r="937">
+      <c r="B937" s="20"/>
+    </row>
+    <row r="938">
+      <c r="B938" s="20"/>
+    </row>
+    <row r="939">
+      <c r="B939" s="20"/>
+    </row>
+    <row r="940">
+      <c r="B940" s="20"/>
+    </row>
+    <row r="941">
+      <c r="B941" s="20"/>
+    </row>
+    <row r="942">
+      <c r="B942" s="20"/>
+    </row>
+    <row r="943">
+      <c r="B943" s="20"/>
+    </row>
+    <row r="944">
+      <c r="B944" s="20"/>
+    </row>
+    <row r="945">
+      <c r="B945" s="20"/>
+    </row>
+    <row r="946">
+      <c r="B946" s="20"/>
+    </row>
+    <row r="947">
+      <c r="B947" s="20"/>
+    </row>
+    <row r="948">
+      <c r="B948" s="20"/>
+    </row>
+    <row r="949">
+      <c r="B949" s="20"/>
+    </row>
+    <row r="950">
+      <c r="B950" s="20"/>
+    </row>
+    <row r="951">
+      <c r="B951" s="20"/>
+    </row>
+    <row r="952">
+      <c r="B952" s="20"/>
+    </row>
+    <row r="953">
+      <c r="B953" s="20"/>
+    </row>
+    <row r="954">
+      <c r="B954" s="20"/>
+    </row>
+    <row r="955">
+      <c r="B955" s="20"/>
+    </row>
+    <row r="956">
+      <c r="B956" s="20"/>
+    </row>
+    <row r="957">
+      <c r="B957" s="20"/>
+    </row>
+    <row r="958">
+      <c r="B958" s="20"/>
+    </row>
+    <row r="959">
+      <c r="B959" s="20"/>
+    </row>
+    <row r="960">
+      <c r="B960" s="20"/>
+    </row>
+    <row r="961">
+      <c r="B961" s="20"/>
+    </row>
+    <row r="962">
+      <c r="B962" s="20"/>
+    </row>
+    <row r="963">
+      <c r="B963" s="20"/>
+    </row>
+    <row r="964">
+      <c r="B964" s="20"/>
+    </row>
+    <row r="965">
+      <c r="B965" s="20"/>
+    </row>
+    <row r="966">
+      <c r="B966" s="20"/>
+    </row>
+    <row r="967">
+      <c r="B967" s="20"/>
+    </row>
+    <row r="968">
+      <c r="B968" s="20"/>
+    </row>
+    <row r="969">
+      <c r="B969" s="20"/>
+    </row>
+    <row r="970">
+      <c r="B970" s="20"/>
+    </row>
+    <row r="971">
+      <c r="B971" s="20"/>
+    </row>
+    <row r="972">
+      <c r="B972" s="20"/>
+    </row>
+    <row r="973">
+      <c r="B973" s="20"/>
+    </row>
+    <row r="974">
+      <c r="B974" s="20"/>
+    </row>
+    <row r="975">
+      <c r="B975" s="20"/>
+    </row>
+    <row r="976">
+      <c r="B976" s="20"/>
+    </row>
+    <row r="977">
+      <c r="B977" s="20"/>
+    </row>
+    <row r="978">
+      <c r="B978" s="20"/>
+    </row>
+    <row r="979">
+      <c r="B979" s="20"/>
+    </row>
+    <row r="980">
+      <c r="B980" s="20"/>
+    </row>
+    <row r="981">
+      <c r="B981" s="20"/>
+    </row>
+    <row r="982">
+      <c r="B982" s="20"/>
+    </row>
+    <row r="983">
+      <c r="B983" s="20"/>
+    </row>
+    <row r="984">
+      <c r="B984" s="20"/>
+    </row>
+    <row r="985">
+      <c r="B985" s="20"/>
+    </row>
+    <row r="986">
+      <c r="B986" s="20"/>
+    </row>
+    <row r="987">
+      <c r="B987" s="20"/>
+    </row>
+    <row r="988">
+      <c r="B988" s="20"/>
+    </row>
+    <row r="989">
+      <c r="B989" s="20"/>
+    </row>
+    <row r="990">
+      <c r="B990" s="20"/>
+    </row>
+    <row r="991">
+      <c r="B991" s="20"/>
+    </row>
+    <row r="992">
+      <c r="B992" s="20"/>
+    </row>
+    <row r="993">
+      <c r="B993" s="20"/>
+    </row>
+    <row r="994">
+      <c r="B994" s="20"/>
+    </row>
+    <row r="995">
+      <c r="B995" s="20"/>
+    </row>
+    <row r="996">
+      <c r="B996" s="20"/>
+    </row>
+    <row r="997">
+      <c r="B997" s="20"/>
+    </row>
+    <row r="998">
+      <c r="B998" s="20"/>
+    </row>
+    <row r="999">
+      <c r="B999" s="20"/>
+    </row>
+    <row r="1000">
+      <c r="B1000" s="20"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -29896,46 +32913,61 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>41</v>
+      <c r="B2" s="17" t="s">
+        <v>16</v>
       </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>42</v>
+      <c r="B3" s="17" t="s">
+        <v>16</v>
       </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>43</v>
+      <c r="B4" s="17" t="s">
+        <v>25</v>
       </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>44</v>
+      <c r="B5" s="17" t="s">
+        <v>25</v>
       </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -29953,59 +32985,3086 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.5"/>
+    <col customWidth="1" min="5" max="5" width="132.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
+      <c r="C1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>16</v>
+      <c r="B2" s="15" t="s">
+        <v>20</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>16</v>
+      <c r="B3" s="15" t="s">
+        <v>20</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="21"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>24</v>
+      <c r="B4" s="15" t="s">
+        <v>20</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>24</v>
+      <c r="B5" s="15" t="s">
+        <v>20</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="C5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6">
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7">
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9">
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34">
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41">
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42">
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43">
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44">
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45">
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46">
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47">
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48">
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49">
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50">
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51">
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52">
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53">
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54">
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55">
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56">
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57">
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58">
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59">
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60">
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61">
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62">
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63">
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64">
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65">
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66">
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67">
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68">
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69">
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70">
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71">
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72">
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73">
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74">
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75">
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76">
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77">
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78">
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79">
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80">
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81">
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82">
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83">
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84">
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85">
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86">
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87">
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88">
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89">
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90">
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91">
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92">
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93">
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94">
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95">
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96">
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97">
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98">
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99">
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100">
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101">
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102">
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103">
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104">
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105">
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106">
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107">
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108">
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109">
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110">
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111">
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112">
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113">
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114">
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115">
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116">
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117">
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118">
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119">
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120">
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121">
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122">
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123">
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124">
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125">
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126">
+      <c r="E126" s="5"/>
+    </row>
+    <row r="127">
+      <c r="E127" s="5"/>
+    </row>
+    <row r="128">
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129">
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130">
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131">
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132">
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133">
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134">
+      <c r="E134" s="5"/>
+    </row>
+    <row r="135">
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136">
+      <c r="E136" s="5"/>
+    </row>
+    <row r="137">
+      <c r="E137" s="5"/>
+    </row>
+    <row r="138">
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139">
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140">
+      <c r="E140" s="5"/>
+    </row>
+    <row r="141">
+      <c r="E141" s="5"/>
+    </row>
+    <row r="142">
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143">
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144">
+      <c r="E144" s="5"/>
+    </row>
+    <row r="145">
+      <c r="E145" s="5"/>
+    </row>
+    <row r="146">
+      <c r="E146" s="5"/>
+    </row>
+    <row r="147">
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148">
+      <c r="E148" s="5"/>
+    </row>
+    <row r="149">
+      <c r="E149" s="5"/>
+    </row>
+    <row r="150">
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151">
+      <c r="E151" s="5"/>
+    </row>
+    <row r="152">
+      <c r="E152" s="5"/>
+    </row>
+    <row r="153">
+      <c r="E153" s="5"/>
+    </row>
+    <row r="154">
+      <c r="E154" s="5"/>
+    </row>
+    <row r="155">
+      <c r="E155" s="5"/>
+    </row>
+    <row r="156">
+      <c r="E156" s="5"/>
+    </row>
+    <row r="157">
+      <c r="E157" s="5"/>
+    </row>
+    <row r="158">
+      <c r="E158" s="5"/>
+    </row>
+    <row r="159">
+      <c r="E159" s="5"/>
+    </row>
+    <row r="160">
+      <c r="E160" s="5"/>
+    </row>
+    <row r="161">
+      <c r="E161" s="5"/>
+    </row>
+    <row r="162">
+      <c r="E162" s="5"/>
+    </row>
+    <row r="163">
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164">
+      <c r="E164" s="5"/>
+    </row>
+    <row r="165">
+      <c r="E165" s="5"/>
+    </row>
+    <row r="166">
+      <c r="E166" s="5"/>
+    </row>
+    <row r="167">
+      <c r="E167" s="5"/>
+    </row>
+    <row r="168">
+      <c r="E168" s="5"/>
+    </row>
+    <row r="169">
+      <c r="E169" s="5"/>
+    </row>
+    <row r="170">
+      <c r="E170" s="5"/>
+    </row>
+    <row r="171">
+      <c r="E171" s="5"/>
+    </row>
+    <row r="172">
+      <c r="E172" s="5"/>
+    </row>
+    <row r="173">
+      <c r="E173" s="5"/>
+    </row>
+    <row r="174">
+      <c r="E174" s="5"/>
+    </row>
+    <row r="175">
+      <c r="E175" s="5"/>
+    </row>
+    <row r="176">
+      <c r="E176" s="5"/>
+    </row>
+    <row r="177">
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178">
+      <c r="E178" s="5"/>
+    </row>
+    <row r="179">
+      <c r="E179" s="5"/>
+    </row>
+    <row r="180">
+      <c r="E180" s="5"/>
+    </row>
+    <row r="181">
+      <c r="E181" s="5"/>
+    </row>
+    <row r="182">
+      <c r="E182" s="5"/>
+    </row>
+    <row r="183">
+      <c r="E183" s="5"/>
+    </row>
+    <row r="184">
+      <c r="E184" s="5"/>
+    </row>
+    <row r="185">
+      <c r="E185" s="5"/>
+    </row>
+    <row r="186">
+      <c r="E186" s="5"/>
+    </row>
+    <row r="187">
+      <c r="E187" s="5"/>
+    </row>
+    <row r="188">
+      <c r="E188" s="5"/>
+    </row>
+    <row r="189">
+      <c r="E189" s="5"/>
+    </row>
+    <row r="190">
+      <c r="E190" s="5"/>
+    </row>
+    <row r="191">
+      <c r="E191" s="5"/>
+    </row>
+    <row r="192">
+      <c r="E192" s="5"/>
+    </row>
+    <row r="193">
+      <c r="E193" s="5"/>
+    </row>
+    <row r="194">
+      <c r="E194" s="5"/>
+    </row>
+    <row r="195">
+      <c r="E195" s="5"/>
+    </row>
+    <row r="196">
+      <c r="E196" s="5"/>
+    </row>
+    <row r="197">
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198">
+      <c r="E198" s="5"/>
+    </row>
+    <row r="199">
+      <c r="E199" s="5"/>
+    </row>
+    <row r="200">
+      <c r="E200" s="5"/>
+    </row>
+    <row r="201">
+      <c r="E201" s="5"/>
+    </row>
+    <row r="202">
+      <c r="E202" s="5"/>
+    </row>
+    <row r="203">
+      <c r="E203" s="5"/>
+    </row>
+    <row r="204">
+      <c r="E204" s="5"/>
+    </row>
+    <row r="205">
+      <c r="E205" s="5"/>
+    </row>
+    <row r="206">
+      <c r="E206" s="5"/>
+    </row>
+    <row r="207">
+      <c r="E207" s="5"/>
+    </row>
+    <row r="208">
+      <c r="E208" s="5"/>
+    </row>
+    <row r="209">
+      <c r="E209" s="5"/>
+    </row>
+    <row r="210">
+      <c r="E210" s="5"/>
+    </row>
+    <row r="211">
+      <c r="E211" s="5"/>
+    </row>
+    <row r="212">
+      <c r="E212" s="5"/>
+    </row>
+    <row r="213">
+      <c r="E213" s="5"/>
+    </row>
+    <row r="214">
+      <c r="E214" s="5"/>
+    </row>
+    <row r="215">
+      <c r="E215" s="5"/>
+    </row>
+    <row r="216">
+      <c r="E216" s="5"/>
+    </row>
+    <row r="217">
+      <c r="E217" s="5"/>
+    </row>
+    <row r="218">
+      <c r="E218" s="5"/>
+    </row>
+    <row r="219">
+      <c r="E219" s="5"/>
+    </row>
+    <row r="220">
+      <c r="E220" s="5"/>
+    </row>
+    <row r="221">
+      <c r="E221" s="5"/>
+    </row>
+    <row r="222">
+      <c r="E222" s="5"/>
+    </row>
+    <row r="223">
+      <c r="E223" s="5"/>
+    </row>
+    <row r="224">
+      <c r="E224" s="5"/>
+    </row>
+    <row r="225">
+      <c r="E225" s="5"/>
+    </row>
+    <row r="226">
+      <c r="E226" s="5"/>
+    </row>
+    <row r="227">
+      <c r="E227" s="5"/>
+    </row>
+    <row r="228">
+      <c r="E228" s="5"/>
+    </row>
+    <row r="229">
+      <c r="E229" s="5"/>
+    </row>
+    <row r="230">
+      <c r="E230" s="5"/>
+    </row>
+    <row r="231">
+      <c r="E231" s="5"/>
+    </row>
+    <row r="232">
+      <c r="E232" s="5"/>
+    </row>
+    <row r="233">
+      <c r="E233" s="5"/>
+    </row>
+    <row r="234">
+      <c r="E234" s="5"/>
+    </row>
+    <row r="235">
+      <c r="E235" s="5"/>
+    </row>
+    <row r="236">
+      <c r="E236" s="5"/>
+    </row>
+    <row r="237">
+      <c r="E237" s="5"/>
+    </row>
+    <row r="238">
+      <c r="E238" s="5"/>
+    </row>
+    <row r="239">
+      <c r="E239" s="5"/>
+    </row>
+    <row r="240">
+      <c r="E240" s="5"/>
+    </row>
+    <row r="241">
+      <c r="E241" s="5"/>
+    </row>
+    <row r="242">
+      <c r="E242" s="5"/>
+    </row>
+    <row r="243">
+      <c r="E243" s="5"/>
+    </row>
+    <row r="244">
+      <c r="E244" s="5"/>
+    </row>
+    <row r="245">
+      <c r="E245" s="5"/>
+    </row>
+    <row r="246">
+      <c r="E246" s="5"/>
+    </row>
+    <row r="247">
+      <c r="E247" s="5"/>
+    </row>
+    <row r="248">
+      <c r="E248" s="5"/>
+    </row>
+    <row r="249">
+      <c r="E249" s="5"/>
+    </row>
+    <row r="250">
+      <c r="E250" s="5"/>
+    </row>
+    <row r="251">
+      <c r="E251" s="5"/>
+    </row>
+    <row r="252">
+      <c r="E252" s="5"/>
+    </row>
+    <row r="253">
+      <c r="E253" s="5"/>
+    </row>
+    <row r="254">
+      <c r="E254" s="5"/>
+    </row>
+    <row r="255">
+      <c r="E255" s="5"/>
+    </row>
+    <row r="256">
+      <c r="E256" s="5"/>
+    </row>
+    <row r="257">
+      <c r="E257" s="5"/>
+    </row>
+    <row r="258">
+      <c r="E258" s="5"/>
+    </row>
+    <row r="259">
+      <c r="E259" s="5"/>
+    </row>
+    <row r="260">
+      <c r="E260" s="5"/>
+    </row>
+    <row r="261">
+      <c r="E261" s="5"/>
+    </row>
+    <row r="262">
+      <c r="E262" s="5"/>
+    </row>
+    <row r="263">
+      <c r="E263" s="5"/>
+    </row>
+    <row r="264">
+      <c r="E264" s="5"/>
+    </row>
+    <row r="265">
+      <c r="E265" s="5"/>
+    </row>
+    <row r="266">
+      <c r="E266" s="5"/>
+    </row>
+    <row r="267">
+      <c r="E267" s="5"/>
+    </row>
+    <row r="268">
+      <c r="E268" s="5"/>
+    </row>
+    <row r="269">
+      <c r="E269" s="5"/>
+    </row>
+    <row r="270">
+      <c r="E270" s="5"/>
+    </row>
+    <row r="271">
+      <c r="E271" s="5"/>
+    </row>
+    <row r="272">
+      <c r="E272" s="5"/>
+    </row>
+    <row r="273">
+      <c r="E273" s="5"/>
+    </row>
+    <row r="274">
+      <c r="E274" s="5"/>
+    </row>
+    <row r="275">
+      <c r="E275" s="5"/>
+    </row>
+    <row r="276">
+      <c r="E276" s="5"/>
+    </row>
+    <row r="277">
+      <c r="E277" s="5"/>
+    </row>
+    <row r="278">
+      <c r="E278" s="5"/>
+    </row>
+    <row r="279">
+      <c r="E279" s="5"/>
+    </row>
+    <row r="280">
+      <c r="E280" s="5"/>
+    </row>
+    <row r="281">
+      <c r="E281" s="5"/>
+    </row>
+    <row r="282">
+      <c r="E282" s="5"/>
+    </row>
+    <row r="283">
+      <c r="E283" s="5"/>
+    </row>
+    <row r="284">
+      <c r="E284" s="5"/>
+    </row>
+    <row r="285">
+      <c r="E285" s="5"/>
+    </row>
+    <row r="286">
+      <c r="E286" s="5"/>
+    </row>
+    <row r="287">
+      <c r="E287" s="5"/>
+    </row>
+    <row r="288">
+      <c r="E288" s="5"/>
+    </row>
+    <row r="289">
+      <c r="E289" s="5"/>
+    </row>
+    <row r="290">
+      <c r="E290" s="5"/>
+    </row>
+    <row r="291">
+      <c r="E291" s="5"/>
+    </row>
+    <row r="292">
+      <c r="E292" s="5"/>
+    </row>
+    <row r="293">
+      <c r="E293" s="5"/>
+    </row>
+    <row r="294">
+      <c r="E294" s="5"/>
+    </row>
+    <row r="295">
+      <c r="E295" s="5"/>
+    </row>
+    <row r="296">
+      <c r="E296" s="5"/>
+    </row>
+    <row r="297">
+      <c r="E297" s="5"/>
+    </row>
+    <row r="298">
+      <c r="E298" s="5"/>
+    </row>
+    <row r="299">
+      <c r="E299" s="5"/>
+    </row>
+    <row r="300">
+      <c r="E300" s="5"/>
+    </row>
+    <row r="301">
+      <c r="E301" s="5"/>
+    </row>
+    <row r="302">
+      <c r="E302" s="5"/>
+    </row>
+    <row r="303">
+      <c r="E303" s="5"/>
+    </row>
+    <row r="304">
+      <c r="E304" s="5"/>
+    </row>
+    <row r="305">
+      <c r="E305" s="5"/>
+    </row>
+    <row r="306">
+      <c r="E306" s="5"/>
+    </row>
+    <row r="307">
+      <c r="E307" s="5"/>
+    </row>
+    <row r="308">
+      <c r="E308" s="5"/>
+    </row>
+    <row r="309">
+      <c r="E309" s="5"/>
+    </row>
+    <row r="310">
+      <c r="E310" s="5"/>
+    </row>
+    <row r="311">
+      <c r="E311" s="5"/>
+    </row>
+    <row r="312">
+      <c r="E312" s="5"/>
+    </row>
+    <row r="313">
+      <c r="E313" s="5"/>
+    </row>
+    <row r="314">
+      <c r="E314" s="5"/>
+    </row>
+    <row r="315">
+      <c r="E315" s="5"/>
+    </row>
+    <row r="316">
+      <c r="E316" s="5"/>
+    </row>
+    <row r="317">
+      <c r="E317" s="5"/>
+    </row>
+    <row r="318">
+      <c r="E318" s="5"/>
+    </row>
+    <row r="319">
+      <c r="E319" s="5"/>
+    </row>
+    <row r="320">
+      <c r="E320" s="5"/>
+    </row>
+    <row r="321">
+      <c r="E321" s="5"/>
+    </row>
+    <row r="322">
+      <c r="E322" s="5"/>
+    </row>
+    <row r="323">
+      <c r="E323" s="5"/>
+    </row>
+    <row r="324">
+      <c r="E324" s="5"/>
+    </row>
+    <row r="325">
+      <c r="E325" s="5"/>
+    </row>
+    <row r="326">
+      <c r="E326" s="5"/>
+    </row>
+    <row r="327">
+      <c r="E327" s="5"/>
+    </row>
+    <row r="328">
+      <c r="E328" s="5"/>
+    </row>
+    <row r="329">
+      <c r="E329" s="5"/>
+    </row>
+    <row r="330">
+      <c r="E330" s="5"/>
+    </row>
+    <row r="331">
+      <c r="E331" s="5"/>
+    </row>
+    <row r="332">
+      <c r="E332" s="5"/>
+    </row>
+    <row r="333">
+      <c r="E333" s="5"/>
+    </row>
+    <row r="334">
+      <c r="E334" s="5"/>
+    </row>
+    <row r="335">
+      <c r="E335" s="5"/>
+    </row>
+    <row r="336">
+      <c r="E336" s="5"/>
+    </row>
+    <row r="337">
+      <c r="E337" s="5"/>
+    </row>
+    <row r="338">
+      <c r="E338" s="5"/>
+    </row>
+    <row r="339">
+      <c r="E339" s="5"/>
+    </row>
+    <row r="340">
+      <c r="E340" s="5"/>
+    </row>
+    <row r="341">
+      <c r="E341" s="5"/>
+    </row>
+    <row r="342">
+      <c r="E342" s="5"/>
+    </row>
+    <row r="343">
+      <c r="E343" s="5"/>
+    </row>
+    <row r="344">
+      <c r="E344" s="5"/>
+    </row>
+    <row r="345">
+      <c r="E345" s="5"/>
+    </row>
+    <row r="346">
+      <c r="E346" s="5"/>
+    </row>
+    <row r="347">
+      <c r="E347" s="5"/>
+    </row>
+    <row r="348">
+      <c r="E348" s="5"/>
+    </row>
+    <row r="349">
+      <c r="E349" s="5"/>
+    </row>
+    <row r="350">
+      <c r="E350" s="5"/>
+    </row>
+    <row r="351">
+      <c r="E351" s="5"/>
+    </row>
+    <row r="352">
+      <c r="E352" s="5"/>
+    </row>
+    <row r="353">
+      <c r="E353" s="5"/>
+    </row>
+    <row r="354">
+      <c r="E354" s="5"/>
+    </row>
+    <row r="355">
+      <c r="E355" s="5"/>
+    </row>
+    <row r="356">
+      <c r="E356" s="5"/>
+    </row>
+    <row r="357">
+      <c r="E357" s="5"/>
+    </row>
+    <row r="358">
+      <c r="E358" s="5"/>
+    </row>
+    <row r="359">
+      <c r="E359" s="5"/>
+    </row>
+    <row r="360">
+      <c r="E360" s="5"/>
+    </row>
+    <row r="361">
+      <c r="E361" s="5"/>
+    </row>
+    <row r="362">
+      <c r="E362" s="5"/>
+    </row>
+    <row r="363">
+      <c r="E363" s="5"/>
+    </row>
+    <row r="364">
+      <c r="E364" s="5"/>
+    </row>
+    <row r="365">
+      <c r="E365" s="5"/>
+    </row>
+    <row r="366">
+      <c r="E366" s="5"/>
+    </row>
+    <row r="367">
+      <c r="E367" s="5"/>
+    </row>
+    <row r="368">
+      <c r="E368" s="5"/>
+    </row>
+    <row r="369">
+      <c r="E369" s="5"/>
+    </row>
+    <row r="370">
+      <c r="E370" s="5"/>
+    </row>
+    <row r="371">
+      <c r="E371" s="5"/>
+    </row>
+    <row r="372">
+      <c r="E372" s="5"/>
+    </row>
+    <row r="373">
+      <c r="E373" s="5"/>
+    </row>
+    <row r="374">
+      <c r="E374" s="5"/>
+    </row>
+    <row r="375">
+      <c r="E375" s="5"/>
+    </row>
+    <row r="376">
+      <c r="E376" s="5"/>
+    </row>
+    <row r="377">
+      <c r="E377" s="5"/>
+    </row>
+    <row r="378">
+      <c r="E378" s="5"/>
+    </row>
+    <row r="379">
+      <c r="E379" s="5"/>
+    </row>
+    <row r="380">
+      <c r="E380" s="5"/>
+    </row>
+    <row r="381">
+      <c r="E381" s="5"/>
+    </row>
+    <row r="382">
+      <c r="E382" s="5"/>
+    </row>
+    <row r="383">
+      <c r="E383" s="5"/>
+    </row>
+    <row r="384">
+      <c r="E384" s="5"/>
+    </row>
+    <row r="385">
+      <c r="E385" s="5"/>
+    </row>
+    <row r="386">
+      <c r="E386" s="5"/>
+    </row>
+    <row r="387">
+      <c r="E387" s="5"/>
+    </row>
+    <row r="388">
+      <c r="E388" s="5"/>
+    </row>
+    <row r="389">
+      <c r="E389" s="5"/>
+    </row>
+    <row r="390">
+      <c r="E390" s="5"/>
+    </row>
+    <row r="391">
+      <c r="E391" s="5"/>
+    </row>
+    <row r="392">
+      <c r="E392" s="5"/>
+    </row>
+    <row r="393">
+      <c r="E393" s="5"/>
+    </row>
+    <row r="394">
+      <c r="E394" s="5"/>
+    </row>
+    <row r="395">
+      <c r="E395" s="5"/>
+    </row>
+    <row r="396">
+      <c r="E396" s="5"/>
+    </row>
+    <row r="397">
+      <c r="E397" s="5"/>
+    </row>
+    <row r="398">
+      <c r="E398" s="5"/>
+    </row>
+    <row r="399">
+      <c r="E399" s="5"/>
+    </row>
+    <row r="400">
+      <c r="E400" s="5"/>
+    </row>
+    <row r="401">
+      <c r="E401" s="5"/>
+    </row>
+    <row r="402">
+      <c r="E402" s="5"/>
+    </row>
+    <row r="403">
+      <c r="E403" s="5"/>
+    </row>
+    <row r="404">
+      <c r="E404" s="5"/>
+    </row>
+    <row r="405">
+      <c r="E405" s="5"/>
+    </row>
+    <row r="406">
+      <c r="E406" s="5"/>
+    </row>
+    <row r="407">
+      <c r="E407" s="5"/>
+    </row>
+    <row r="408">
+      <c r="E408" s="5"/>
+    </row>
+    <row r="409">
+      <c r="E409" s="5"/>
+    </row>
+    <row r="410">
+      <c r="E410" s="5"/>
+    </row>
+    <row r="411">
+      <c r="E411" s="5"/>
+    </row>
+    <row r="412">
+      <c r="E412" s="5"/>
+    </row>
+    <row r="413">
+      <c r="E413" s="5"/>
+    </row>
+    <row r="414">
+      <c r="E414" s="5"/>
+    </row>
+    <row r="415">
+      <c r="E415" s="5"/>
+    </row>
+    <row r="416">
+      <c r="E416" s="5"/>
+    </row>
+    <row r="417">
+      <c r="E417" s="5"/>
+    </row>
+    <row r="418">
+      <c r="E418" s="5"/>
+    </row>
+    <row r="419">
+      <c r="E419" s="5"/>
+    </row>
+    <row r="420">
+      <c r="E420" s="5"/>
+    </row>
+    <row r="421">
+      <c r="E421" s="5"/>
+    </row>
+    <row r="422">
+      <c r="E422" s="5"/>
+    </row>
+    <row r="423">
+      <c r="E423" s="5"/>
+    </row>
+    <row r="424">
+      <c r="E424" s="5"/>
+    </row>
+    <row r="425">
+      <c r="E425" s="5"/>
+    </row>
+    <row r="426">
+      <c r="E426" s="5"/>
+    </row>
+    <row r="427">
+      <c r="E427" s="5"/>
+    </row>
+    <row r="428">
+      <c r="E428" s="5"/>
+    </row>
+    <row r="429">
+      <c r="E429" s="5"/>
+    </row>
+    <row r="430">
+      <c r="E430" s="5"/>
+    </row>
+    <row r="431">
+      <c r="E431" s="5"/>
+    </row>
+    <row r="432">
+      <c r="E432" s="5"/>
+    </row>
+    <row r="433">
+      <c r="E433" s="5"/>
+    </row>
+    <row r="434">
+      <c r="E434" s="5"/>
+    </row>
+    <row r="435">
+      <c r="E435" s="5"/>
+    </row>
+    <row r="436">
+      <c r="E436" s="5"/>
+    </row>
+    <row r="437">
+      <c r="E437" s="5"/>
+    </row>
+    <row r="438">
+      <c r="E438" s="5"/>
+    </row>
+    <row r="439">
+      <c r="E439" s="5"/>
+    </row>
+    <row r="440">
+      <c r="E440" s="5"/>
+    </row>
+    <row r="441">
+      <c r="E441" s="5"/>
+    </row>
+    <row r="442">
+      <c r="E442" s="5"/>
+    </row>
+    <row r="443">
+      <c r="E443" s="5"/>
+    </row>
+    <row r="444">
+      <c r="E444" s="5"/>
+    </row>
+    <row r="445">
+      <c r="E445" s="5"/>
+    </row>
+    <row r="446">
+      <c r="E446" s="5"/>
+    </row>
+    <row r="447">
+      <c r="E447" s="5"/>
+    </row>
+    <row r="448">
+      <c r="E448" s="5"/>
+    </row>
+    <row r="449">
+      <c r="E449" s="5"/>
+    </row>
+    <row r="450">
+      <c r="E450" s="5"/>
+    </row>
+    <row r="451">
+      <c r="E451" s="5"/>
+    </row>
+    <row r="452">
+      <c r="E452" s="5"/>
+    </row>
+    <row r="453">
+      <c r="E453" s="5"/>
+    </row>
+    <row r="454">
+      <c r="E454" s="5"/>
+    </row>
+    <row r="455">
+      <c r="E455" s="5"/>
+    </row>
+    <row r="456">
+      <c r="E456" s="5"/>
+    </row>
+    <row r="457">
+      <c r="E457" s="5"/>
+    </row>
+    <row r="458">
+      <c r="E458" s="5"/>
+    </row>
+    <row r="459">
+      <c r="E459" s="5"/>
+    </row>
+    <row r="460">
+      <c r="E460" s="5"/>
+    </row>
+    <row r="461">
+      <c r="E461" s="5"/>
+    </row>
+    <row r="462">
+      <c r="E462" s="5"/>
+    </row>
+    <row r="463">
+      <c r="E463" s="5"/>
+    </row>
+    <row r="464">
+      <c r="E464" s="5"/>
+    </row>
+    <row r="465">
+      <c r="E465" s="5"/>
+    </row>
+    <row r="466">
+      <c r="E466" s="5"/>
+    </row>
+    <row r="467">
+      <c r="E467" s="5"/>
+    </row>
+    <row r="468">
+      <c r="E468" s="5"/>
+    </row>
+    <row r="469">
+      <c r="E469" s="5"/>
+    </row>
+    <row r="470">
+      <c r="E470" s="5"/>
+    </row>
+    <row r="471">
+      <c r="E471" s="5"/>
+    </row>
+    <row r="472">
+      <c r="E472" s="5"/>
+    </row>
+    <row r="473">
+      <c r="E473" s="5"/>
+    </row>
+    <row r="474">
+      <c r="E474" s="5"/>
+    </row>
+    <row r="475">
+      <c r="E475" s="5"/>
+    </row>
+    <row r="476">
+      <c r="E476" s="5"/>
+    </row>
+    <row r="477">
+      <c r="E477" s="5"/>
+    </row>
+    <row r="478">
+      <c r="E478" s="5"/>
+    </row>
+    <row r="479">
+      <c r="E479" s="5"/>
+    </row>
+    <row r="480">
+      <c r="E480" s="5"/>
+    </row>
+    <row r="481">
+      <c r="E481" s="5"/>
+    </row>
+    <row r="482">
+      <c r="E482" s="5"/>
+    </row>
+    <row r="483">
+      <c r="E483" s="5"/>
+    </row>
+    <row r="484">
+      <c r="E484" s="5"/>
+    </row>
+    <row r="485">
+      <c r="E485" s="5"/>
+    </row>
+    <row r="486">
+      <c r="E486" s="5"/>
+    </row>
+    <row r="487">
+      <c r="E487" s="5"/>
+    </row>
+    <row r="488">
+      <c r="E488" s="5"/>
+    </row>
+    <row r="489">
+      <c r="E489" s="5"/>
+    </row>
+    <row r="490">
+      <c r="E490" s="5"/>
+    </row>
+    <row r="491">
+      <c r="E491" s="5"/>
+    </row>
+    <row r="492">
+      <c r="E492" s="5"/>
+    </row>
+    <row r="493">
+      <c r="E493" s="5"/>
+    </row>
+    <row r="494">
+      <c r="E494" s="5"/>
+    </row>
+    <row r="495">
+      <c r="E495" s="5"/>
+    </row>
+    <row r="496">
+      <c r="E496" s="5"/>
+    </row>
+    <row r="497">
+      <c r="E497" s="5"/>
+    </row>
+    <row r="498">
+      <c r="E498" s="5"/>
+    </row>
+    <row r="499">
+      <c r="E499" s="5"/>
+    </row>
+    <row r="500">
+      <c r="E500" s="5"/>
+    </row>
+    <row r="501">
+      <c r="E501" s="5"/>
+    </row>
+    <row r="502">
+      <c r="E502" s="5"/>
+    </row>
+    <row r="503">
+      <c r="E503" s="5"/>
+    </row>
+    <row r="504">
+      <c r="E504" s="5"/>
+    </row>
+    <row r="505">
+      <c r="E505" s="5"/>
+    </row>
+    <row r="506">
+      <c r="E506" s="5"/>
+    </row>
+    <row r="507">
+      <c r="E507" s="5"/>
+    </row>
+    <row r="508">
+      <c r="E508" s="5"/>
+    </row>
+    <row r="509">
+      <c r="E509" s="5"/>
+    </row>
+    <row r="510">
+      <c r="E510" s="5"/>
+    </row>
+    <row r="511">
+      <c r="E511" s="5"/>
+    </row>
+    <row r="512">
+      <c r="E512" s="5"/>
+    </row>
+    <row r="513">
+      <c r="E513" s="5"/>
+    </row>
+    <row r="514">
+      <c r="E514" s="5"/>
+    </row>
+    <row r="515">
+      <c r="E515" s="5"/>
+    </row>
+    <row r="516">
+      <c r="E516" s="5"/>
+    </row>
+    <row r="517">
+      <c r="E517" s="5"/>
+    </row>
+    <row r="518">
+      <c r="E518" s="5"/>
+    </row>
+    <row r="519">
+      <c r="E519" s="5"/>
+    </row>
+    <row r="520">
+      <c r="E520" s="5"/>
+    </row>
+    <row r="521">
+      <c r="E521" s="5"/>
+    </row>
+    <row r="522">
+      <c r="E522" s="5"/>
+    </row>
+    <row r="523">
+      <c r="E523" s="5"/>
+    </row>
+    <row r="524">
+      <c r="E524" s="5"/>
+    </row>
+    <row r="525">
+      <c r="E525" s="5"/>
+    </row>
+    <row r="526">
+      <c r="E526" s="5"/>
+    </row>
+    <row r="527">
+      <c r="E527" s="5"/>
+    </row>
+    <row r="528">
+      <c r="E528" s="5"/>
+    </row>
+    <row r="529">
+      <c r="E529" s="5"/>
+    </row>
+    <row r="530">
+      <c r="E530" s="5"/>
+    </row>
+    <row r="531">
+      <c r="E531" s="5"/>
+    </row>
+    <row r="532">
+      <c r="E532" s="5"/>
+    </row>
+    <row r="533">
+      <c r="E533" s="5"/>
+    </row>
+    <row r="534">
+      <c r="E534" s="5"/>
+    </row>
+    <row r="535">
+      <c r="E535" s="5"/>
+    </row>
+    <row r="536">
+      <c r="E536" s="5"/>
+    </row>
+    <row r="537">
+      <c r="E537" s="5"/>
+    </row>
+    <row r="538">
+      <c r="E538" s="5"/>
+    </row>
+    <row r="539">
+      <c r="E539" s="5"/>
+    </row>
+    <row r="540">
+      <c r="E540" s="5"/>
+    </row>
+    <row r="541">
+      <c r="E541" s="5"/>
+    </row>
+    <row r="542">
+      <c r="E542" s="5"/>
+    </row>
+    <row r="543">
+      <c r="E543" s="5"/>
+    </row>
+    <row r="544">
+      <c r="E544" s="5"/>
+    </row>
+    <row r="545">
+      <c r="E545" s="5"/>
+    </row>
+    <row r="546">
+      <c r="E546" s="5"/>
+    </row>
+    <row r="547">
+      <c r="E547" s="5"/>
+    </row>
+    <row r="548">
+      <c r="E548" s="5"/>
+    </row>
+    <row r="549">
+      <c r="E549" s="5"/>
+    </row>
+    <row r="550">
+      <c r="E550" s="5"/>
+    </row>
+    <row r="551">
+      <c r="E551" s="5"/>
+    </row>
+    <row r="552">
+      <c r="E552" s="5"/>
+    </row>
+    <row r="553">
+      <c r="E553" s="5"/>
+    </row>
+    <row r="554">
+      <c r="E554" s="5"/>
+    </row>
+    <row r="555">
+      <c r="E555" s="5"/>
+    </row>
+    <row r="556">
+      <c r="E556" s="5"/>
+    </row>
+    <row r="557">
+      <c r="E557" s="5"/>
+    </row>
+    <row r="558">
+      <c r="E558" s="5"/>
+    </row>
+    <row r="559">
+      <c r="E559" s="5"/>
+    </row>
+    <row r="560">
+      <c r="E560" s="5"/>
+    </row>
+    <row r="561">
+      <c r="E561" s="5"/>
+    </row>
+    <row r="562">
+      <c r="E562" s="5"/>
+    </row>
+    <row r="563">
+      <c r="E563" s="5"/>
+    </row>
+    <row r="564">
+      <c r="E564" s="5"/>
+    </row>
+    <row r="565">
+      <c r="E565" s="5"/>
+    </row>
+    <row r="566">
+      <c r="E566" s="5"/>
+    </row>
+    <row r="567">
+      <c r="E567" s="5"/>
+    </row>
+    <row r="568">
+      <c r="E568" s="5"/>
+    </row>
+    <row r="569">
+      <c r="E569" s="5"/>
+    </row>
+    <row r="570">
+      <c r="E570" s="5"/>
+    </row>
+    <row r="571">
+      <c r="E571" s="5"/>
+    </row>
+    <row r="572">
+      <c r="E572" s="5"/>
+    </row>
+    <row r="573">
+      <c r="E573" s="5"/>
+    </row>
+    <row r="574">
+      <c r="E574" s="5"/>
+    </row>
+    <row r="575">
+      <c r="E575" s="5"/>
+    </row>
+    <row r="576">
+      <c r="E576" s="5"/>
+    </row>
+    <row r="577">
+      <c r="E577" s="5"/>
+    </row>
+    <row r="578">
+      <c r="E578" s="5"/>
+    </row>
+    <row r="579">
+      <c r="E579" s="5"/>
+    </row>
+    <row r="580">
+      <c r="E580" s="5"/>
+    </row>
+    <row r="581">
+      <c r="E581" s="5"/>
+    </row>
+    <row r="582">
+      <c r="E582" s="5"/>
+    </row>
+    <row r="583">
+      <c r="E583" s="5"/>
+    </row>
+    <row r="584">
+      <c r="E584" s="5"/>
+    </row>
+    <row r="585">
+      <c r="E585" s="5"/>
+    </row>
+    <row r="586">
+      <c r="E586" s="5"/>
+    </row>
+    <row r="587">
+      <c r="E587" s="5"/>
+    </row>
+    <row r="588">
+      <c r="E588" s="5"/>
+    </row>
+    <row r="589">
+      <c r="E589" s="5"/>
+    </row>
+    <row r="590">
+      <c r="E590" s="5"/>
+    </row>
+    <row r="591">
+      <c r="E591" s="5"/>
+    </row>
+    <row r="592">
+      <c r="E592" s="5"/>
+    </row>
+    <row r="593">
+      <c r="E593" s="5"/>
+    </row>
+    <row r="594">
+      <c r="E594" s="5"/>
+    </row>
+    <row r="595">
+      <c r="E595" s="5"/>
+    </row>
+    <row r="596">
+      <c r="E596" s="5"/>
+    </row>
+    <row r="597">
+      <c r="E597" s="5"/>
+    </row>
+    <row r="598">
+      <c r="E598" s="5"/>
+    </row>
+    <row r="599">
+      <c r="E599" s="5"/>
+    </row>
+    <row r="600">
+      <c r="E600" s="5"/>
+    </row>
+    <row r="601">
+      <c r="E601" s="5"/>
+    </row>
+    <row r="602">
+      <c r="E602" s="5"/>
+    </row>
+    <row r="603">
+      <c r="E603" s="5"/>
+    </row>
+    <row r="604">
+      <c r="E604" s="5"/>
+    </row>
+    <row r="605">
+      <c r="E605" s="5"/>
+    </row>
+    <row r="606">
+      <c r="E606" s="5"/>
+    </row>
+    <row r="607">
+      <c r="E607" s="5"/>
+    </row>
+    <row r="608">
+      <c r="E608" s="5"/>
+    </row>
+    <row r="609">
+      <c r="E609" s="5"/>
+    </row>
+    <row r="610">
+      <c r="E610" s="5"/>
+    </row>
+    <row r="611">
+      <c r="E611" s="5"/>
+    </row>
+    <row r="612">
+      <c r="E612" s="5"/>
+    </row>
+    <row r="613">
+      <c r="E613" s="5"/>
+    </row>
+    <row r="614">
+      <c r="E614" s="5"/>
+    </row>
+    <row r="615">
+      <c r="E615" s="5"/>
+    </row>
+    <row r="616">
+      <c r="E616" s="5"/>
+    </row>
+    <row r="617">
+      <c r="E617" s="5"/>
+    </row>
+    <row r="618">
+      <c r="E618" s="5"/>
+    </row>
+    <row r="619">
+      <c r="E619" s="5"/>
+    </row>
+    <row r="620">
+      <c r="E620" s="5"/>
+    </row>
+    <row r="621">
+      <c r="E621" s="5"/>
+    </row>
+    <row r="622">
+      <c r="E622" s="5"/>
+    </row>
+    <row r="623">
+      <c r="E623" s="5"/>
+    </row>
+    <row r="624">
+      <c r="E624" s="5"/>
+    </row>
+    <row r="625">
+      <c r="E625" s="5"/>
+    </row>
+    <row r="626">
+      <c r="E626" s="5"/>
+    </row>
+    <row r="627">
+      <c r="E627" s="5"/>
+    </row>
+    <row r="628">
+      <c r="E628" s="5"/>
+    </row>
+    <row r="629">
+      <c r="E629" s="5"/>
+    </row>
+    <row r="630">
+      <c r="E630" s="5"/>
+    </row>
+    <row r="631">
+      <c r="E631" s="5"/>
+    </row>
+    <row r="632">
+      <c r="E632" s="5"/>
+    </row>
+    <row r="633">
+      <c r="E633" s="5"/>
+    </row>
+    <row r="634">
+      <c r="E634" s="5"/>
+    </row>
+    <row r="635">
+      <c r="E635" s="5"/>
+    </row>
+    <row r="636">
+      <c r="E636" s="5"/>
+    </row>
+    <row r="637">
+      <c r="E637" s="5"/>
+    </row>
+    <row r="638">
+      <c r="E638" s="5"/>
+    </row>
+    <row r="639">
+      <c r="E639" s="5"/>
+    </row>
+    <row r="640">
+      <c r="E640" s="5"/>
+    </row>
+    <row r="641">
+      <c r="E641" s="5"/>
+    </row>
+    <row r="642">
+      <c r="E642" s="5"/>
+    </row>
+    <row r="643">
+      <c r="E643" s="5"/>
+    </row>
+    <row r="644">
+      <c r="E644" s="5"/>
+    </row>
+    <row r="645">
+      <c r="E645" s="5"/>
+    </row>
+    <row r="646">
+      <c r="E646" s="5"/>
+    </row>
+    <row r="647">
+      <c r="E647" s="5"/>
+    </row>
+    <row r="648">
+      <c r="E648" s="5"/>
+    </row>
+    <row r="649">
+      <c r="E649" s="5"/>
+    </row>
+    <row r="650">
+      <c r="E650" s="5"/>
+    </row>
+    <row r="651">
+      <c r="E651" s="5"/>
+    </row>
+    <row r="652">
+      <c r="E652" s="5"/>
+    </row>
+    <row r="653">
+      <c r="E653" s="5"/>
+    </row>
+    <row r="654">
+      <c r="E654" s="5"/>
+    </row>
+    <row r="655">
+      <c r="E655" s="5"/>
+    </row>
+    <row r="656">
+      <c r="E656" s="5"/>
+    </row>
+    <row r="657">
+      <c r="E657" s="5"/>
+    </row>
+    <row r="658">
+      <c r="E658" s="5"/>
+    </row>
+    <row r="659">
+      <c r="E659" s="5"/>
+    </row>
+    <row r="660">
+      <c r="E660" s="5"/>
+    </row>
+    <row r="661">
+      <c r="E661" s="5"/>
+    </row>
+    <row r="662">
+      <c r="E662" s="5"/>
+    </row>
+    <row r="663">
+      <c r="E663" s="5"/>
+    </row>
+    <row r="664">
+      <c r="E664" s="5"/>
+    </row>
+    <row r="665">
+      <c r="E665" s="5"/>
+    </row>
+    <row r="666">
+      <c r="E666" s="5"/>
+    </row>
+    <row r="667">
+      <c r="E667" s="5"/>
+    </row>
+    <row r="668">
+      <c r="E668" s="5"/>
+    </row>
+    <row r="669">
+      <c r="E669" s="5"/>
+    </row>
+    <row r="670">
+      <c r="E670" s="5"/>
+    </row>
+    <row r="671">
+      <c r="E671" s="5"/>
+    </row>
+    <row r="672">
+      <c r="E672" s="5"/>
+    </row>
+    <row r="673">
+      <c r="E673" s="5"/>
+    </row>
+    <row r="674">
+      <c r="E674" s="5"/>
+    </row>
+    <row r="675">
+      <c r="E675" s="5"/>
+    </row>
+    <row r="676">
+      <c r="E676" s="5"/>
+    </row>
+    <row r="677">
+      <c r="E677" s="5"/>
+    </row>
+    <row r="678">
+      <c r="E678" s="5"/>
+    </row>
+    <row r="679">
+      <c r="E679" s="5"/>
+    </row>
+    <row r="680">
+      <c r="E680" s="5"/>
+    </row>
+    <row r="681">
+      <c r="E681" s="5"/>
+    </row>
+    <row r="682">
+      <c r="E682" s="5"/>
+    </row>
+    <row r="683">
+      <c r="E683" s="5"/>
+    </row>
+    <row r="684">
+      <c r="E684" s="5"/>
+    </row>
+    <row r="685">
+      <c r="E685" s="5"/>
+    </row>
+    <row r="686">
+      <c r="E686" s="5"/>
+    </row>
+    <row r="687">
+      <c r="E687" s="5"/>
+    </row>
+    <row r="688">
+      <c r="E688" s="5"/>
+    </row>
+    <row r="689">
+      <c r="E689" s="5"/>
+    </row>
+    <row r="690">
+      <c r="E690" s="5"/>
+    </row>
+    <row r="691">
+      <c r="E691" s="5"/>
+    </row>
+    <row r="692">
+      <c r="E692" s="5"/>
+    </row>
+    <row r="693">
+      <c r="E693" s="5"/>
+    </row>
+    <row r="694">
+      <c r="E694" s="5"/>
+    </row>
+    <row r="695">
+      <c r="E695" s="5"/>
+    </row>
+    <row r="696">
+      <c r="E696" s="5"/>
+    </row>
+    <row r="697">
+      <c r="E697" s="5"/>
+    </row>
+    <row r="698">
+      <c r="E698" s="5"/>
+    </row>
+    <row r="699">
+      <c r="E699" s="5"/>
+    </row>
+    <row r="700">
+      <c r="E700" s="5"/>
+    </row>
+    <row r="701">
+      <c r="E701" s="5"/>
+    </row>
+    <row r="702">
+      <c r="E702" s="5"/>
+    </row>
+    <row r="703">
+      <c r="E703" s="5"/>
+    </row>
+    <row r="704">
+      <c r="E704" s="5"/>
+    </row>
+    <row r="705">
+      <c r="E705" s="5"/>
+    </row>
+    <row r="706">
+      <c r="E706" s="5"/>
+    </row>
+    <row r="707">
+      <c r="E707" s="5"/>
+    </row>
+    <row r="708">
+      <c r="E708" s="5"/>
+    </row>
+    <row r="709">
+      <c r="E709" s="5"/>
+    </row>
+    <row r="710">
+      <c r="E710" s="5"/>
+    </row>
+    <row r="711">
+      <c r="E711" s="5"/>
+    </row>
+    <row r="712">
+      <c r="E712" s="5"/>
+    </row>
+    <row r="713">
+      <c r="E713" s="5"/>
+    </row>
+    <row r="714">
+      <c r="E714" s="5"/>
+    </row>
+    <row r="715">
+      <c r="E715" s="5"/>
+    </row>
+    <row r="716">
+      <c r="E716" s="5"/>
+    </row>
+    <row r="717">
+      <c r="E717" s="5"/>
+    </row>
+    <row r="718">
+      <c r="E718" s="5"/>
+    </row>
+    <row r="719">
+      <c r="E719" s="5"/>
+    </row>
+    <row r="720">
+      <c r="E720" s="5"/>
+    </row>
+    <row r="721">
+      <c r="E721" s="5"/>
+    </row>
+    <row r="722">
+      <c r="E722" s="5"/>
+    </row>
+    <row r="723">
+      <c r="E723" s="5"/>
+    </row>
+    <row r="724">
+      <c r="E724" s="5"/>
+    </row>
+    <row r="725">
+      <c r="E725" s="5"/>
+    </row>
+    <row r="726">
+      <c r="E726" s="5"/>
+    </row>
+    <row r="727">
+      <c r="E727" s="5"/>
+    </row>
+    <row r="728">
+      <c r="E728" s="5"/>
+    </row>
+    <row r="729">
+      <c r="E729" s="5"/>
+    </row>
+    <row r="730">
+      <c r="E730" s="5"/>
+    </row>
+    <row r="731">
+      <c r="E731" s="5"/>
+    </row>
+    <row r="732">
+      <c r="E732" s="5"/>
+    </row>
+    <row r="733">
+      <c r="E733" s="5"/>
+    </row>
+    <row r="734">
+      <c r="E734" s="5"/>
+    </row>
+    <row r="735">
+      <c r="E735" s="5"/>
+    </row>
+    <row r="736">
+      <c r="E736" s="5"/>
+    </row>
+    <row r="737">
+      <c r="E737" s="5"/>
+    </row>
+    <row r="738">
+      <c r="E738" s="5"/>
+    </row>
+    <row r="739">
+      <c r="E739" s="5"/>
+    </row>
+    <row r="740">
+      <c r="E740" s="5"/>
+    </row>
+    <row r="741">
+      <c r="E741" s="5"/>
+    </row>
+    <row r="742">
+      <c r="E742" s="5"/>
+    </row>
+    <row r="743">
+      <c r="E743" s="5"/>
+    </row>
+    <row r="744">
+      <c r="E744" s="5"/>
+    </row>
+    <row r="745">
+      <c r="E745" s="5"/>
+    </row>
+    <row r="746">
+      <c r="E746" s="5"/>
+    </row>
+    <row r="747">
+      <c r="E747" s="5"/>
+    </row>
+    <row r="748">
+      <c r="E748" s="5"/>
+    </row>
+    <row r="749">
+      <c r="E749" s="5"/>
+    </row>
+    <row r="750">
+      <c r="E750" s="5"/>
+    </row>
+    <row r="751">
+      <c r="E751" s="5"/>
+    </row>
+    <row r="752">
+      <c r="E752" s="5"/>
+    </row>
+    <row r="753">
+      <c r="E753" s="5"/>
+    </row>
+    <row r="754">
+      <c r="E754" s="5"/>
+    </row>
+    <row r="755">
+      <c r="E755" s="5"/>
+    </row>
+    <row r="756">
+      <c r="E756" s="5"/>
+    </row>
+    <row r="757">
+      <c r="E757" s="5"/>
+    </row>
+    <row r="758">
+      <c r="E758" s="5"/>
+    </row>
+    <row r="759">
+      <c r="E759" s="5"/>
+    </row>
+    <row r="760">
+      <c r="E760" s="5"/>
+    </row>
+    <row r="761">
+      <c r="E761" s="5"/>
+    </row>
+    <row r="762">
+      <c r="E762" s="5"/>
+    </row>
+    <row r="763">
+      <c r="E763" s="5"/>
+    </row>
+    <row r="764">
+      <c r="E764" s="5"/>
+    </row>
+    <row r="765">
+      <c r="E765" s="5"/>
+    </row>
+    <row r="766">
+      <c r="E766" s="5"/>
+    </row>
+    <row r="767">
+      <c r="E767" s="5"/>
+    </row>
+    <row r="768">
+      <c r="E768" s="5"/>
+    </row>
+    <row r="769">
+      <c r="E769" s="5"/>
+    </row>
+    <row r="770">
+      <c r="E770" s="5"/>
+    </row>
+    <row r="771">
+      <c r="E771" s="5"/>
+    </row>
+    <row r="772">
+      <c r="E772" s="5"/>
+    </row>
+    <row r="773">
+      <c r="E773" s="5"/>
+    </row>
+    <row r="774">
+      <c r="E774" s="5"/>
+    </row>
+    <row r="775">
+      <c r="E775" s="5"/>
+    </row>
+    <row r="776">
+      <c r="E776" s="5"/>
+    </row>
+    <row r="777">
+      <c r="E777" s="5"/>
+    </row>
+    <row r="778">
+      <c r="E778" s="5"/>
+    </row>
+    <row r="779">
+      <c r="E779" s="5"/>
+    </row>
+    <row r="780">
+      <c r="E780" s="5"/>
+    </row>
+    <row r="781">
+      <c r="E781" s="5"/>
+    </row>
+    <row r="782">
+      <c r="E782" s="5"/>
+    </row>
+    <row r="783">
+      <c r="E783" s="5"/>
+    </row>
+    <row r="784">
+      <c r="E784" s="5"/>
+    </row>
+    <row r="785">
+      <c r="E785" s="5"/>
+    </row>
+    <row r="786">
+      <c r="E786" s="5"/>
+    </row>
+    <row r="787">
+      <c r="E787" s="5"/>
+    </row>
+    <row r="788">
+      <c r="E788" s="5"/>
+    </row>
+    <row r="789">
+      <c r="E789" s="5"/>
+    </row>
+    <row r="790">
+      <c r="E790" s="5"/>
+    </row>
+    <row r="791">
+      <c r="E791" s="5"/>
+    </row>
+    <row r="792">
+      <c r="E792" s="5"/>
+    </row>
+    <row r="793">
+      <c r="E793" s="5"/>
+    </row>
+    <row r="794">
+      <c r="E794" s="5"/>
+    </row>
+    <row r="795">
+      <c r="E795" s="5"/>
+    </row>
+    <row r="796">
+      <c r="E796" s="5"/>
+    </row>
+    <row r="797">
+      <c r="E797" s="5"/>
+    </row>
+    <row r="798">
+      <c r="E798" s="5"/>
+    </row>
+    <row r="799">
+      <c r="E799" s="5"/>
+    </row>
+    <row r="800">
+      <c r="E800" s="5"/>
+    </row>
+    <row r="801">
+      <c r="E801" s="5"/>
+    </row>
+    <row r="802">
+      <c r="E802" s="5"/>
+    </row>
+    <row r="803">
+      <c r="E803" s="5"/>
+    </row>
+    <row r="804">
+      <c r="E804" s="5"/>
+    </row>
+    <row r="805">
+      <c r="E805" s="5"/>
+    </row>
+    <row r="806">
+      <c r="E806" s="5"/>
+    </row>
+    <row r="807">
+      <c r="E807" s="5"/>
+    </row>
+    <row r="808">
+      <c r="E808" s="5"/>
+    </row>
+    <row r="809">
+      <c r="E809" s="5"/>
+    </row>
+    <row r="810">
+      <c r="E810" s="5"/>
+    </row>
+    <row r="811">
+      <c r="E811" s="5"/>
+    </row>
+    <row r="812">
+      <c r="E812" s="5"/>
+    </row>
+    <row r="813">
+      <c r="E813" s="5"/>
+    </row>
+    <row r="814">
+      <c r="E814" s="5"/>
+    </row>
+    <row r="815">
+      <c r="E815" s="5"/>
+    </row>
+    <row r="816">
+      <c r="E816" s="5"/>
+    </row>
+    <row r="817">
+      <c r="E817" s="5"/>
+    </row>
+    <row r="818">
+      <c r="E818" s="5"/>
+    </row>
+    <row r="819">
+      <c r="E819" s="5"/>
+    </row>
+    <row r="820">
+      <c r="E820" s="5"/>
+    </row>
+    <row r="821">
+      <c r="E821" s="5"/>
+    </row>
+    <row r="822">
+      <c r="E822" s="5"/>
+    </row>
+    <row r="823">
+      <c r="E823" s="5"/>
+    </row>
+    <row r="824">
+      <c r="E824" s="5"/>
+    </row>
+    <row r="825">
+      <c r="E825" s="5"/>
+    </row>
+    <row r="826">
+      <c r="E826" s="5"/>
+    </row>
+    <row r="827">
+      <c r="E827" s="5"/>
+    </row>
+    <row r="828">
+      <c r="E828" s="5"/>
+    </row>
+    <row r="829">
+      <c r="E829" s="5"/>
+    </row>
+    <row r="830">
+      <c r="E830" s="5"/>
+    </row>
+    <row r="831">
+      <c r="E831" s="5"/>
+    </row>
+    <row r="832">
+      <c r="E832" s="5"/>
+    </row>
+    <row r="833">
+      <c r="E833" s="5"/>
+    </row>
+    <row r="834">
+      <c r="E834" s="5"/>
+    </row>
+    <row r="835">
+      <c r="E835" s="5"/>
+    </row>
+    <row r="836">
+      <c r="E836" s="5"/>
+    </row>
+    <row r="837">
+      <c r="E837" s="5"/>
+    </row>
+    <row r="838">
+      <c r="E838" s="5"/>
+    </row>
+    <row r="839">
+      <c r="E839" s="5"/>
+    </row>
+    <row r="840">
+      <c r="E840" s="5"/>
+    </row>
+    <row r="841">
+      <c r="E841" s="5"/>
+    </row>
+    <row r="842">
+      <c r="E842" s="5"/>
+    </row>
+    <row r="843">
+      <c r="E843" s="5"/>
+    </row>
+    <row r="844">
+      <c r="E844" s="5"/>
+    </row>
+    <row r="845">
+      <c r="E845" s="5"/>
+    </row>
+    <row r="846">
+      <c r="E846" s="5"/>
+    </row>
+    <row r="847">
+      <c r="E847" s="5"/>
+    </row>
+    <row r="848">
+      <c r="E848" s="5"/>
+    </row>
+    <row r="849">
+      <c r="E849" s="5"/>
+    </row>
+    <row r="850">
+      <c r="E850" s="5"/>
+    </row>
+    <row r="851">
+      <c r="E851" s="5"/>
+    </row>
+    <row r="852">
+      <c r="E852" s="5"/>
+    </row>
+    <row r="853">
+      <c r="E853" s="5"/>
+    </row>
+    <row r="854">
+      <c r="E854" s="5"/>
+    </row>
+    <row r="855">
+      <c r="E855" s="5"/>
+    </row>
+    <row r="856">
+      <c r="E856" s="5"/>
+    </row>
+    <row r="857">
+      <c r="E857" s="5"/>
+    </row>
+    <row r="858">
+      <c r="E858" s="5"/>
+    </row>
+    <row r="859">
+      <c r="E859" s="5"/>
+    </row>
+    <row r="860">
+      <c r="E860" s="5"/>
+    </row>
+    <row r="861">
+      <c r="E861" s="5"/>
+    </row>
+    <row r="862">
+      <c r="E862" s="5"/>
+    </row>
+    <row r="863">
+      <c r="E863" s="5"/>
+    </row>
+    <row r="864">
+      <c r="E864" s="5"/>
+    </row>
+    <row r="865">
+      <c r="E865" s="5"/>
+    </row>
+    <row r="866">
+      <c r="E866" s="5"/>
+    </row>
+    <row r="867">
+      <c r="E867" s="5"/>
+    </row>
+    <row r="868">
+      <c r="E868" s="5"/>
+    </row>
+    <row r="869">
+      <c r="E869" s="5"/>
+    </row>
+    <row r="870">
+      <c r="E870" s="5"/>
+    </row>
+    <row r="871">
+      <c r="E871" s="5"/>
+    </row>
+    <row r="872">
+      <c r="E872" s="5"/>
+    </row>
+    <row r="873">
+      <c r="E873" s="5"/>
+    </row>
+    <row r="874">
+      <c r="E874" s="5"/>
+    </row>
+    <row r="875">
+      <c r="E875" s="5"/>
+    </row>
+    <row r="876">
+      <c r="E876" s="5"/>
+    </row>
+    <row r="877">
+      <c r="E877" s="5"/>
+    </row>
+    <row r="878">
+      <c r="E878" s="5"/>
+    </row>
+    <row r="879">
+      <c r="E879" s="5"/>
+    </row>
+    <row r="880">
+      <c r="E880" s="5"/>
+    </row>
+    <row r="881">
+      <c r="E881" s="5"/>
+    </row>
+    <row r="882">
+      <c r="E882" s="5"/>
+    </row>
+    <row r="883">
+      <c r="E883" s="5"/>
+    </row>
+    <row r="884">
+      <c r="E884" s="5"/>
+    </row>
+    <row r="885">
+      <c r="E885" s="5"/>
+    </row>
+    <row r="886">
+      <c r="E886" s="5"/>
+    </row>
+    <row r="887">
+      <c r="E887" s="5"/>
+    </row>
+    <row r="888">
+      <c r="E888" s="5"/>
+    </row>
+    <row r="889">
+      <c r="E889" s="5"/>
+    </row>
+    <row r="890">
+      <c r="E890" s="5"/>
+    </row>
+    <row r="891">
+      <c r="E891" s="5"/>
+    </row>
+    <row r="892">
+      <c r="E892" s="5"/>
+    </row>
+    <row r="893">
+      <c r="E893" s="5"/>
+    </row>
+    <row r="894">
+      <c r="E894" s="5"/>
+    </row>
+    <row r="895">
+      <c r="E895" s="5"/>
+    </row>
+    <row r="896">
+      <c r="E896" s="5"/>
+    </row>
+    <row r="897">
+      <c r="E897" s="5"/>
+    </row>
+    <row r="898">
+      <c r="E898" s="5"/>
+    </row>
+    <row r="899">
+      <c r="E899" s="5"/>
+    </row>
+    <row r="900">
+      <c r="E900" s="5"/>
+    </row>
+    <row r="901">
+      <c r="E901" s="5"/>
+    </row>
+    <row r="902">
+      <c r="E902" s="5"/>
+    </row>
+    <row r="903">
+      <c r="E903" s="5"/>
+    </row>
+    <row r="904">
+      <c r="E904" s="5"/>
+    </row>
+    <row r="905">
+      <c r="E905" s="5"/>
+    </row>
+    <row r="906">
+      <c r="E906" s="5"/>
+    </row>
+    <row r="907">
+      <c r="E907" s="5"/>
+    </row>
+    <row r="908">
+      <c r="E908" s="5"/>
+    </row>
+    <row r="909">
+      <c r="E909" s="5"/>
+    </row>
+    <row r="910">
+      <c r="E910" s="5"/>
+    </row>
+    <row r="911">
+      <c r="E911" s="5"/>
+    </row>
+    <row r="912">
+      <c r="E912" s="5"/>
+    </row>
+    <row r="913">
+      <c r="E913" s="5"/>
+    </row>
+    <row r="914">
+      <c r="E914" s="5"/>
+    </row>
+    <row r="915">
+      <c r="E915" s="5"/>
+    </row>
+    <row r="916">
+      <c r="E916" s="5"/>
+    </row>
+    <row r="917">
+      <c r="E917" s="5"/>
+    </row>
+    <row r="918">
+      <c r="E918" s="5"/>
+    </row>
+    <row r="919">
+      <c r="E919" s="5"/>
+    </row>
+    <row r="920">
+      <c r="E920" s="5"/>
+    </row>
+    <row r="921">
+      <c r="E921" s="5"/>
+    </row>
+    <row r="922">
+      <c r="E922" s="5"/>
+    </row>
+    <row r="923">
+      <c r="E923" s="5"/>
+    </row>
+    <row r="924">
+      <c r="E924" s="5"/>
+    </row>
+    <row r="925">
+      <c r="E925" s="5"/>
+    </row>
+    <row r="926">
+      <c r="E926" s="5"/>
+    </row>
+    <row r="927">
+      <c r="E927" s="5"/>
+    </row>
+    <row r="928">
+      <c r="E928" s="5"/>
+    </row>
+    <row r="929">
+      <c r="E929" s="5"/>
+    </row>
+    <row r="930">
+      <c r="E930" s="5"/>
+    </row>
+    <row r="931">
+      <c r="E931" s="5"/>
+    </row>
+    <row r="932">
+      <c r="E932" s="5"/>
+    </row>
+    <row r="933">
+      <c r="E933" s="5"/>
+    </row>
+    <row r="934">
+      <c r="E934" s="5"/>
+    </row>
+    <row r="935">
+      <c r="E935" s="5"/>
+    </row>
+    <row r="936">
+      <c r="E936" s="5"/>
+    </row>
+    <row r="937">
+      <c r="E937" s="5"/>
+    </row>
+    <row r="938">
+      <c r="E938" s="5"/>
+    </row>
+    <row r="939">
+      <c r="E939" s="5"/>
+    </row>
+    <row r="940">
+      <c r="E940" s="5"/>
+    </row>
+    <row r="941">
+      <c r="E941" s="5"/>
+    </row>
+    <row r="942">
+      <c r="E942" s="5"/>
+    </row>
+    <row r="943">
+      <c r="E943" s="5"/>
+    </row>
+    <row r="944">
+      <c r="E944" s="5"/>
+    </row>
+    <row r="945">
+      <c r="E945" s="5"/>
+    </row>
+    <row r="946">
+      <c r="E946" s="5"/>
+    </row>
+    <row r="947">
+      <c r="E947" s="5"/>
+    </row>
+    <row r="948">
+      <c r="E948" s="5"/>
+    </row>
+    <row r="949">
+      <c r="E949" s="5"/>
+    </row>
+    <row r="950">
+      <c r="E950" s="5"/>
+    </row>
+    <row r="951">
+      <c r="E951" s="5"/>
+    </row>
+    <row r="952">
+      <c r="E952" s="5"/>
+    </row>
+    <row r="953">
+      <c r="E953" s="5"/>
+    </row>
+    <row r="954">
+      <c r="E954" s="5"/>
+    </row>
+    <row r="955">
+      <c r="E955" s="5"/>
+    </row>
+    <row r="956">
+      <c r="E956" s="5"/>
+    </row>
+    <row r="957">
+      <c r="E957" s="5"/>
+    </row>
+    <row r="958">
+      <c r="E958" s="5"/>
+    </row>
+    <row r="959">
+      <c r="E959" s="5"/>
+    </row>
+    <row r="960">
+      <c r="E960" s="5"/>
+    </row>
+    <row r="961">
+      <c r="E961" s="5"/>
+    </row>
+    <row r="962">
+      <c r="E962" s="5"/>
+    </row>
+    <row r="963">
+      <c r="E963" s="5"/>
+    </row>
+    <row r="964">
+      <c r="E964" s="5"/>
+    </row>
+    <row r="965">
+      <c r="E965" s="5"/>
+    </row>
+    <row r="966">
+      <c r="E966" s="5"/>
+    </row>
+    <row r="967">
+      <c r="E967" s="5"/>
+    </row>
+    <row r="968">
+      <c r="E968" s="5"/>
+    </row>
+    <row r="969">
+      <c r="E969" s="5"/>
+    </row>
+    <row r="970">
+      <c r="E970" s="5"/>
+    </row>
+    <row r="971">
+      <c r="E971" s="5"/>
+    </row>
+    <row r="972">
+      <c r="E972" s="5"/>
+    </row>
+    <row r="973">
+      <c r="E973" s="5"/>
+    </row>
+    <row r="974">
+      <c r="E974" s="5"/>
+    </row>
+    <row r="975">
+      <c r="E975" s="5"/>
+    </row>
+    <row r="976">
+      <c r="E976" s="5"/>
+    </row>
+    <row r="977">
+      <c r="E977" s="5"/>
+    </row>
+    <row r="978">
+      <c r="E978" s="5"/>
+    </row>
+    <row r="979">
+      <c r="E979" s="5"/>
+    </row>
+    <row r="980">
+      <c r="E980" s="5"/>
+    </row>
+    <row r="981">
+      <c r="E981" s="5"/>
+    </row>
+    <row r="982">
+      <c r="E982" s="5"/>
+    </row>
+    <row r="983">
+      <c r="E983" s="5"/>
+    </row>
+    <row r="984">
+      <c r="E984" s="5"/>
+    </row>
+    <row r="985">
+      <c r="E985" s="5"/>
+    </row>
+    <row r="986">
+      <c r="E986" s="5"/>
+    </row>
+    <row r="987">
+      <c r="E987" s="5"/>
+    </row>
+    <row r="988">
+      <c r="E988" s="5"/>
+    </row>
+    <row r="989">
+      <c r="E989" s="5"/>
+    </row>
+    <row r="990">
+      <c r="E990" s="5"/>
+    </row>
+    <row r="991">
+      <c r="E991" s="5"/>
+    </row>
+    <row r="992">
+      <c r="E992" s="5"/>
+    </row>
+    <row r="993">
+      <c r="E993" s="5"/>
+    </row>
+    <row r="994">
+      <c r="E994" s="5"/>
+    </row>
+    <row r="995">
+      <c r="E995" s="5"/>
+    </row>
+    <row r="996">
+      <c r="E996" s="5"/>
+    </row>
+    <row r="997">
+      <c r="E997" s="5"/>
+    </row>
+    <row r="998">
+      <c r="E998" s="5"/>
+    </row>
+    <row r="999">
+      <c r="E999" s="5"/>
+    </row>
+    <row r="1000">
+      <c r="E1000" s="5"/>
+    </row>
+    <row r="1001">
+      <c r="E1001" s="5"/>
+    </row>
+    <row r="1002">
+      <c r="E1002" s="5"/>
+    </row>
+    <row r="1003">
+      <c r="E1003" s="5"/>
+    </row>
+    <row r="1004">
+      <c r="E1004" s="5"/>
+    </row>
+    <row r="1005">
+      <c r="E1005" s="5"/>
+    </row>
+    <row r="1006">
+      <c r="E1006" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -30013,3103 +36072,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="18.5"/>
-    <col customWidth="1" min="5" max="5" width="132.0"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6">
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7">
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8">
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9">
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10">
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11">
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12">
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13">
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17">
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18">
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19">
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20">
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21">
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22">
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23">
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24">
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25">
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26">
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27">
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28">
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29">
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30">
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31">
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32">
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33">
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34">
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35">
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36">
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37">
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38">
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39">
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40">
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41">
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42">
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43">
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44">
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45">
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46">
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47">
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48">
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49">
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50">
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51">
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52">
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53">
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54">
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55">
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56">
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57">
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58">
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59">
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60">
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61">
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62">
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63">
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64">
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65">
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66">
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67">
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68">
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69">
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70">
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71">
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72">
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73">
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74">
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75">
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76">
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77">
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78">
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79">
-      <c r="E79" s="5"/>
-    </row>
-    <row r="80">
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81">
-      <c r="E81" s="5"/>
-    </row>
-    <row r="82">
-      <c r="E82" s="5"/>
-    </row>
-    <row r="83">
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84">
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85">
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86">
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87">
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88">
-      <c r="E88" s="5"/>
-    </row>
-    <row r="89">
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90">
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91">
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92">
-      <c r="E92" s="5"/>
-    </row>
-    <row r="93">
-      <c r="E93" s="5"/>
-    </row>
-    <row r="94">
-      <c r="E94" s="5"/>
-    </row>
-    <row r="95">
-      <c r="E95" s="5"/>
-    </row>
-    <row r="96">
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97">
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98">
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99">
-      <c r="E99" s="5"/>
-    </row>
-    <row r="100">
-      <c r="E100" s="5"/>
-    </row>
-    <row r="101">
-      <c r="E101" s="5"/>
-    </row>
-    <row r="102">
-      <c r="E102" s="5"/>
-    </row>
-    <row r="103">
-      <c r="E103" s="5"/>
-    </row>
-    <row r="104">
-      <c r="E104" s="5"/>
-    </row>
-    <row r="105">
-      <c r="E105" s="5"/>
-    </row>
-    <row r="106">
-      <c r="E106" s="5"/>
-    </row>
-    <row r="107">
-      <c r="E107" s="5"/>
-    </row>
-    <row r="108">
-      <c r="E108" s="5"/>
-    </row>
-    <row r="109">
-      <c r="E109" s="5"/>
-    </row>
-    <row r="110">
-      <c r="E110" s="5"/>
-    </row>
-    <row r="111">
-      <c r="E111" s="5"/>
-    </row>
-    <row r="112">
-      <c r="E112" s="5"/>
-    </row>
-    <row r="113">
-      <c r="E113" s="5"/>
-    </row>
-    <row r="114">
-      <c r="E114" s="5"/>
-    </row>
-    <row r="115">
-      <c r="E115" s="5"/>
-    </row>
-    <row r="116">
-      <c r="E116" s="5"/>
-    </row>
-    <row r="117">
-      <c r="E117" s="5"/>
-    </row>
-    <row r="118">
-      <c r="E118" s="5"/>
-    </row>
-    <row r="119">
-      <c r="E119" s="5"/>
-    </row>
-    <row r="120">
-      <c r="E120" s="5"/>
-    </row>
-    <row r="121">
-      <c r="E121" s="5"/>
-    </row>
-    <row r="122">
-      <c r="E122" s="5"/>
-    </row>
-    <row r="123">
-      <c r="E123" s="5"/>
-    </row>
-    <row r="124">
-      <c r="E124" s="5"/>
-    </row>
-    <row r="125">
-      <c r="E125" s="5"/>
-    </row>
-    <row r="126">
-      <c r="E126" s="5"/>
-    </row>
-    <row r="127">
-      <c r="E127" s="5"/>
-    </row>
-    <row r="128">
-      <c r="E128" s="5"/>
-    </row>
-    <row r="129">
-      <c r="E129" s="5"/>
-    </row>
-    <row r="130">
-      <c r="E130" s="5"/>
-    </row>
-    <row r="131">
-      <c r="E131" s="5"/>
-    </row>
-    <row r="132">
-      <c r="E132" s="5"/>
-    </row>
-    <row r="133">
-      <c r="E133" s="5"/>
-    </row>
-    <row r="134">
-      <c r="E134" s="5"/>
-    </row>
-    <row r="135">
-      <c r="E135" s="5"/>
-    </row>
-    <row r="136">
-      <c r="E136" s="5"/>
-    </row>
-    <row r="137">
-      <c r="E137" s="5"/>
-    </row>
-    <row r="138">
-      <c r="E138" s="5"/>
-    </row>
-    <row r="139">
-      <c r="E139" s="5"/>
-    </row>
-    <row r="140">
-      <c r="E140" s="5"/>
-    </row>
-    <row r="141">
-      <c r="E141" s="5"/>
-    </row>
-    <row r="142">
-      <c r="E142" s="5"/>
-    </row>
-    <row r="143">
-      <c r="E143" s="5"/>
-    </row>
-    <row r="144">
-      <c r="E144" s="5"/>
-    </row>
-    <row r="145">
-      <c r="E145" s="5"/>
-    </row>
-    <row r="146">
-      <c r="E146" s="5"/>
-    </row>
-    <row r="147">
-      <c r="E147" s="5"/>
-    </row>
-    <row r="148">
-      <c r="E148" s="5"/>
-    </row>
-    <row r="149">
-      <c r="E149" s="5"/>
-    </row>
-    <row r="150">
-      <c r="E150" s="5"/>
-    </row>
-    <row r="151">
-      <c r="E151" s="5"/>
-    </row>
-    <row r="152">
-      <c r="E152" s="5"/>
-    </row>
-    <row r="153">
-      <c r="E153" s="5"/>
-    </row>
-    <row r="154">
-      <c r="E154" s="5"/>
-    </row>
-    <row r="155">
-      <c r="E155" s="5"/>
-    </row>
-    <row r="156">
-      <c r="E156" s="5"/>
-    </row>
-    <row r="157">
-      <c r="E157" s="5"/>
-    </row>
-    <row r="158">
-      <c r="E158" s="5"/>
-    </row>
-    <row r="159">
-      <c r="E159" s="5"/>
-    </row>
-    <row r="160">
-      <c r="E160" s="5"/>
-    </row>
-    <row r="161">
-      <c r="E161" s="5"/>
-    </row>
-    <row r="162">
-      <c r="E162" s="5"/>
-    </row>
-    <row r="163">
-      <c r="E163" s="5"/>
-    </row>
-    <row r="164">
-      <c r="E164" s="5"/>
-    </row>
-    <row r="165">
-      <c r="E165" s="5"/>
-    </row>
-    <row r="166">
-      <c r="E166" s="5"/>
-    </row>
-    <row r="167">
-      <c r="E167" s="5"/>
-    </row>
-    <row r="168">
-      <c r="E168" s="5"/>
-    </row>
-    <row r="169">
-      <c r="E169" s="5"/>
-    </row>
-    <row r="170">
-      <c r="E170" s="5"/>
-    </row>
-    <row r="171">
-      <c r="E171" s="5"/>
-    </row>
-    <row r="172">
-      <c r="E172" s="5"/>
-    </row>
-    <row r="173">
-      <c r="E173" s="5"/>
-    </row>
-    <row r="174">
-      <c r="E174" s="5"/>
-    </row>
-    <row r="175">
-      <c r="E175" s="5"/>
-    </row>
-    <row r="176">
-      <c r="E176" s="5"/>
-    </row>
-    <row r="177">
-      <c r="E177" s="5"/>
-    </row>
-    <row r="178">
-      <c r="E178" s="5"/>
-    </row>
-    <row r="179">
-      <c r="E179" s="5"/>
-    </row>
-    <row r="180">
-      <c r="E180" s="5"/>
-    </row>
-    <row r="181">
-      <c r="E181" s="5"/>
-    </row>
-    <row r="182">
-      <c r="E182" s="5"/>
-    </row>
-    <row r="183">
-      <c r="E183" s="5"/>
-    </row>
-    <row r="184">
-      <c r="E184" s="5"/>
-    </row>
-    <row r="185">
-      <c r="E185" s="5"/>
-    </row>
-    <row r="186">
-      <c r="E186" s="5"/>
-    </row>
-    <row r="187">
-      <c r="E187" s="5"/>
-    </row>
-    <row r="188">
-      <c r="E188" s="5"/>
-    </row>
-    <row r="189">
-      <c r="E189" s="5"/>
-    </row>
-    <row r="190">
-      <c r="E190" s="5"/>
-    </row>
-    <row r="191">
-      <c r="E191" s="5"/>
-    </row>
-    <row r="192">
-      <c r="E192" s="5"/>
-    </row>
-    <row r="193">
-      <c r="E193" s="5"/>
-    </row>
-    <row r="194">
-      <c r="E194" s="5"/>
-    </row>
-    <row r="195">
-      <c r="E195" s="5"/>
-    </row>
-    <row r="196">
-      <c r="E196" s="5"/>
-    </row>
-    <row r="197">
-      <c r="E197" s="5"/>
-    </row>
-    <row r="198">
-      <c r="E198" s="5"/>
-    </row>
-    <row r="199">
-      <c r="E199" s="5"/>
-    </row>
-    <row r="200">
-      <c r="E200" s="5"/>
-    </row>
-    <row r="201">
-      <c r="E201" s="5"/>
-    </row>
-    <row r="202">
-      <c r="E202" s="5"/>
-    </row>
-    <row r="203">
-      <c r="E203" s="5"/>
-    </row>
-    <row r="204">
-      <c r="E204" s="5"/>
-    </row>
-    <row r="205">
-      <c r="E205" s="5"/>
-    </row>
-    <row r="206">
-      <c r="E206" s="5"/>
-    </row>
-    <row r="207">
-      <c r="E207" s="5"/>
-    </row>
-    <row r="208">
-      <c r="E208" s="5"/>
-    </row>
-    <row r="209">
-      <c r="E209" s="5"/>
-    </row>
-    <row r="210">
-      <c r="E210" s="5"/>
-    </row>
-    <row r="211">
-      <c r="E211" s="5"/>
-    </row>
-    <row r="212">
-      <c r="E212" s="5"/>
-    </row>
-    <row r="213">
-      <c r="E213" s="5"/>
-    </row>
-    <row r="214">
-      <c r="E214" s="5"/>
-    </row>
-    <row r="215">
-      <c r="E215" s="5"/>
-    </row>
-    <row r="216">
-      <c r="E216" s="5"/>
-    </row>
-    <row r="217">
-      <c r="E217" s="5"/>
-    </row>
-    <row r="218">
-      <c r="E218" s="5"/>
-    </row>
-    <row r="219">
-      <c r="E219" s="5"/>
-    </row>
-    <row r="220">
-      <c r="E220" s="5"/>
-    </row>
-    <row r="221">
-      <c r="E221" s="5"/>
-    </row>
-    <row r="222">
-      <c r="E222" s="5"/>
-    </row>
-    <row r="223">
-      <c r="E223" s="5"/>
-    </row>
-    <row r="224">
-      <c r="E224" s="5"/>
-    </row>
-    <row r="225">
-      <c r="E225" s="5"/>
-    </row>
-    <row r="226">
-      <c r="E226" s="5"/>
-    </row>
-    <row r="227">
-      <c r="E227" s="5"/>
-    </row>
-    <row r="228">
-      <c r="E228" s="5"/>
-    </row>
-    <row r="229">
-      <c r="E229" s="5"/>
-    </row>
-    <row r="230">
-      <c r="E230" s="5"/>
-    </row>
-    <row r="231">
-      <c r="E231" s="5"/>
-    </row>
-    <row r="232">
-      <c r="E232" s="5"/>
-    </row>
-    <row r="233">
-      <c r="E233" s="5"/>
-    </row>
-    <row r="234">
-      <c r="E234" s="5"/>
-    </row>
-    <row r="235">
-      <c r="E235" s="5"/>
-    </row>
-    <row r="236">
-      <c r="E236" s="5"/>
-    </row>
-    <row r="237">
-      <c r="E237" s="5"/>
-    </row>
-    <row r="238">
-      <c r="E238" s="5"/>
-    </row>
-    <row r="239">
-      <c r="E239" s="5"/>
-    </row>
-    <row r="240">
-      <c r="E240" s="5"/>
-    </row>
-    <row r="241">
-      <c r="E241" s="5"/>
-    </row>
-    <row r="242">
-      <c r="E242" s="5"/>
-    </row>
-    <row r="243">
-      <c r="E243" s="5"/>
-    </row>
-    <row r="244">
-      <c r="E244" s="5"/>
-    </row>
-    <row r="245">
-      <c r="E245" s="5"/>
-    </row>
-    <row r="246">
-      <c r="E246" s="5"/>
-    </row>
-    <row r="247">
-      <c r="E247" s="5"/>
-    </row>
-    <row r="248">
-      <c r="E248" s="5"/>
-    </row>
-    <row r="249">
-      <c r="E249" s="5"/>
-    </row>
-    <row r="250">
-      <c r="E250" s="5"/>
-    </row>
-    <row r="251">
-      <c r="E251" s="5"/>
-    </row>
-    <row r="252">
-      <c r="E252" s="5"/>
-    </row>
-    <row r="253">
-      <c r="E253" s="5"/>
-    </row>
-    <row r="254">
-      <c r="E254" s="5"/>
-    </row>
-    <row r="255">
-      <c r="E255" s="5"/>
-    </row>
-    <row r="256">
-      <c r="E256" s="5"/>
-    </row>
-    <row r="257">
-      <c r="E257" s="5"/>
-    </row>
-    <row r="258">
-      <c r="E258" s="5"/>
-    </row>
-    <row r="259">
-      <c r="E259" s="5"/>
-    </row>
-    <row r="260">
-      <c r="E260" s="5"/>
-    </row>
-    <row r="261">
-      <c r="E261" s="5"/>
-    </row>
-    <row r="262">
-      <c r="E262" s="5"/>
-    </row>
-    <row r="263">
-      <c r="E263" s="5"/>
-    </row>
-    <row r="264">
-      <c r="E264" s="5"/>
-    </row>
-    <row r="265">
-      <c r="E265" s="5"/>
-    </row>
-    <row r="266">
-      <c r="E266" s="5"/>
-    </row>
-    <row r="267">
-      <c r="E267" s="5"/>
-    </row>
-    <row r="268">
-      <c r="E268" s="5"/>
-    </row>
-    <row r="269">
-      <c r="E269" s="5"/>
-    </row>
-    <row r="270">
-      <c r="E270" s="5"/>
-    </row>
-    <row r="271">
-      <c r="E271" s="5"/>
-    </row>
-    <row r="272">
-      <c r="E272" s="5"/>
-    </row>
-    <row r="273">
-      <c r="E273" s="5"/>
-    </row>
-    <row r="274">
-      <c r="E274" s="5"/>
-    </row>
-    <row r="275">
-      <c r="E275" s="5"/>
-    </row>
-    <row r="276">
-      <c r="E276" s="5"/>
-    </row>
-    <row r="277">
-      <c r="E277" s="5"/>
-    </row>
-    <row r="278">
-      <c r="E278" s="5"/>
-    </row>
-    <row r="279">
-      <c r="E279" s="5"/>
-    </row>
-    <row r="280">
-      <c r="E280" s="5"/>
-    </row>
-    <row r="281">
-      <c r="E281" s="5"/>
-    </row>
-    <row r="282">
-      <c r="E282" s="5"/>
-    </row>
-    <row r="283">
-      <c r="E283" s="5"/>
-    </row>
-    <row r="284">
-      <c r="E284" s="5"/>
-    </row>
-    <row r="285">
-      <c r="E285" s="5"/>
-    </row>
-    <row r="286">
-      <c r="E286" s="5"/>
-    </row>
-    <row r="287">
-      <c r="E287" s="5"/>
-    </row>
-    <row r="288">
-      <c r="E288" s="5"/>
-    </row>
-    <row r="289">
-      <c r="E289" s="5"/>
-    </row>
-    <row r="290">
-      <c r="E290" s="5"/>
-    </row>
-    <row r="291">
-      <c r="E291" s="5"/>
-    </row>
-    <row r="292">
-      <c r="E292" s="5"/>
-    </row>
-    <row r="293">
-      <c r="E293" s="5"/>
-    </row>
-    <row r="294">
-      <c r="E294" s="5"/>
-    </row>
-    <row r="295">
-      <c r="E295" s="5"/>
-    </row>
-    <row r="296">
-      <c r="E296" s="5"/>
-    </row>
-    <row r="297">
-      <c r="E297" s="5"/>
-    </row>
-    <row r="298">
-      <c r="E298" s="5"/>
-    </row>
-    <row r="299">
-      <c r="E299" s="5"/>
-    </row>
-    <row r="300">
-      <c r="E300" s="5"/>
-    </row>
-    <row r="301">
-      <c r="E301" s="5"/>
-    </row>
-    <row r="302">
-      <c r="E302" s="5"/>
-    </row>
-    <row r="303">
-      <c r="E303" s="5"/>
-    </row>
-    <row r="304">
-      <c r="E304" s="5"/>
-    </row>
-    <row r="305">
-      <c r="E305" s="5"/>
-    </row>
-    <row r="306">
-      <c r="E306" s="5"/>
-    </row>
-    <row r="307">
-      <c r="E307" s="5"/>
-    </row>
-    <row r="308">
-      <c r="E308" s="5"/>
-    </row>
-    <row r="309">
-      <c r="E309" s="5"/>
-    </row>
-    <row r="310">
-      <c r="E310" s="5"/>
-    </row>
-    <row r="311">
-      <c r="E311" s="5"/>
-    </row>
-    <row r="312">
-      <c r="E312" s="5"/>
-    </row>
-    <row r="313">
-      <c r="E313" s="5"/>
-    </row>
-    <row r="314">
-      <c r="E314" s="5"/>
-    </row>
-    <row r="315">
-      <c r="E315" s="5"/>
-    </row>
-    <row r="316">
-      <c r="E316" s="5"/>
-    </row>
-    <row r="317">
-      <c r="E317" s="5"/>
-    </row>
-    <row r="318">
-      <c r="E318" s="5"/>
-    </row>
-    <row r="319">
-      <c r="E319" s="5"/>
-    </row>
-    <row r="320">
-      <c r="E320" s="5"/>
-    </row>
-    <row r="321">
-      <c r="E321" s="5"/>
-    </row>
-    <row r="322">
-      <c r="E322" s="5"/>
-    </row>
-    <row r="323">
-      <c r="E323" s="5"/>
-    </row>
-    <row r="324">
-      <c r="E324" s="5"/>
-    </row>
-    <row r="325">
-      <c r="E325" s="5"/>
-    </row>
-    <row r="326">
-      <c r="E326" s="5"/>
-    </row>
-    <row r="327">
-      <c r="E327" s="5"/>
-    </row>
-    <row r="328">
-      <c r="E328" s="5"/>
-    </row>
-    <row r="329">
-      <c r="E329" s="5"/>
-    </row>
-    <row r="330">
-      <c r="E330" s="5"/>
-    </row>
-    <row r="331">
-      <c r="E331" s="5"/>
-    </row>
-    <row r="332">
-      <c r="E332" s="5"/>
-    </row>
-    <row r="333">
-      <c r="E333" s="5"/>
-    </row>
-    <row r="334">
-      <c r="E334" s="5"/>
-    </row>
-    <row r="335">
-      <c r="E335" s="5"/>
-    </row>
-    <row r="336">
-      <c r="E336" s="5"/>
-    </row>
-    <row r="337">
-      <c r="E337" s="5"/>
-    </row>
-    <row r="338">
-      <c r="E338" s="5"/>
-    </row>
-    <row r="339">
-      <c r="E339" s="5"/>
-    </row>
-    <row r="340">
-      <c r="E340" s="5"/>
-    </row>
-    <row r="341">
-      <c r="E341" s="5"/>
-    </row>
-    <row r="342">
-      <c r="E342" s="5"/>
-    </row>
-    <row r="343">
-      <c r="E343" s="5"/>
-    </row>
-    <row r="344">
-      <c r="E344" s="5"/>
-    </row>
-    <row r="345">
-      <c r="E345" s="5"/>
-    </row>
-    <row r="346">
-      <c r="E346" s="5"/>
-    </row>
-    <row r="347">
-      <c r="E347" s="5"/>
-    </row>
-    <row r="348">
-      <c r="E348" s="5"/>
-    </row>
-    <row r="349">
-      <c r="E349" s="5"/>
-    </row>
-    <row r="350">
-      <c r="E350" s="5"/>
-    </row>
-    <row r="351">
-      <c r="E351" s="5"/>
-    </row>
-    <row r="352">
-      <c r="E352" s="5"/>
-    </row>
-    <row r="353">
-      <c r="E353" s="5"/>
-    </row>
-    <row r="354">
-      <c r="E354" s="5"/>
-    </row>
-    <row r="355">
-      <c r="E355" s="5"/>
-    </row>
-    <row r="356">
-      <c r="E356" s="5"/>
-    </row>
-    <row r="357">
-      <c r="E357" s="5"/>
-    </row>
-    <row r="358">
-      <c r="E358" s="5"/>
-    </row>
-    <row r="359">
-      <c r="E359" s="5"/>
-    </row>
-    <row r="360">
-      <c r="E360" s="5"/>
-    </row>
-    <row r="361">
-      <c r="E361" s="5"/>
-    </row>
-    <row r="362">
-      <c r="E362" s="5"/>
-    </row>
-    <row r="363">
-      <c r="E363" s="5"/>
-    </row>
-    <row r="364">
-      <c r="E364" s="5"/>
-    </row>
-    <row r="365">
-      <c r="E365" s="5"/>
-    </row>
-    <row r="366">
-      <c r="E366" s="5"/>
-    </row>
-    <row r="367">
-      <c r="E367" s="5"/>
-    </row>
-    <row r="368">
-      <c r="E368" s="5"/>
-    </row>
-    <row r="369">
-      <c r="E369" s="5"/>
-    </row>
-    <row r="370">
-      <c r="E370" s="5"/>
-    </row>
-    <row r="371">
-      <c r="E371" s="5"/>
-    </row>
-    <row r="372">
-      <c r="E372" s="5"/>
-    </row>
-    <row r="373">
-      <c r="E373" s="5"/>
-    </row>
-    <row r="374">
-      <c r="E374" s="5"/>
-    </row>
-    <row r="375">
-      <c r="E375" s="5"/>
-    </row>
-    <row r="376">
-      <c r="E376" s="5"/>
-    </row>
-    <row r="377">
-      <c r="E377" s="5"/>
-    </row>
-    <row r="378">
-      <c r="E378" s="5"/>
-    </row>
-    <row r="379">
-      <c r="E379" s="5"/>
-    </row>
-    <row r="380">
-      <c r="E380" s="5"/>
-    </row>
-    <row r="381">
-      <c r="E381" s="5"/>
-    </row>
-    <row r="382">
-      <c r="E382" s="5"/>
-    </row>
-    <row r="383">
-      <c r="E383" s="5"/>
-    </row>
-    <row r="384">
-      <c r="E384" s="5"/>
-    </row>
-    <row r="385">
-      <c r="E385" s="5"/>
-    </row>
-    <row r="386">
-      <c r="E386" s="5"/>
-    </row>
-    <row r="387">
-      <c r="E387" s="5"/>
-    </row>
-    <row r="388">
-      <c r="E388" s="5"/>
-    </row>
-    <row r="389">
-      <c r="E389" s="5"/>
-    </row>
-    <row r="390">
-      <c r="E390" s="5"/>
-    </row>
-    <row r="391">
-      <c r="E391" s="5"/>
-    </row>
-    <row r="392">
-      <c r="E392" s="5"/>
-    </row>
-    <row r="393">
-      <c r="E393" s="5"/>
-    </row>
-    <row r="394">
-      <c r="E394" s="5"/>
-    </row>
-    <row r="395">
-      <c r="E395" s="5"/>
-    </row>
-    <row r="396">
-      <c r="E396" s="5"/>
-    </row>
-    <row r="397">
-      <c r="E397" s="5"/>
-    </row>
-    <row r="398">
-      <c r="E398" s="5"/>
-    </row>
-    <row r="399">
-      <c r="E399" s="5"/>
-    </row>
-    <row r="400">
-      <c r="E400" s="5"/>
-    </row>
-    <row r="401">
-      <c r="E401" s="5"/>
-    </row>
-    <row r="402">
-      <c r="E402" s="5"/>
-    </row>
-    <row r="403">
-      <c r="E403" s="5"/>
-    </row>
-    <row r="404">
-      <c r="E404" s="5"/>
-    </row>
-    <row r="405">
-      <c r="E405" s="5"/>
-    </row>
-    <row r="406">
-      <c r="E406" s="5"/>
-    </row>
-    <row r="407">
-      <c r="E407" s="5"/>
-    </row>
-    <row r="408">
-      <c r="E408" s="5"/>
-    </row>
-    <row r="409">
-      <c r="E409" s="5"/>
-    </row>
-    <row r="410">
-      <c r="E410" s="5"/>
-    </row>
-    <row r="411">
-      <c r="E411" s="5"/>
-    </row>
-    <row r="412">
-      <c r="E412" s="5"/>
-    </row>
-    <row r="413">
-      <c r="E413" s="5"/>
-    </row>
-    <row r="414">
-      <c r="E414" s="5"/>
-    </row>
-    <row r="415">
-      <c r="E415" s="5"/>
-    </row>
-    <row r="416">
-      <c r="E416" s="5"/>
-    </row>
-    <row r="417">
-      <c r="E417" s="5"/>
-    </row>
-    <row r="418">
-      <c r="E418" s="5"/>
-    </row>
-    <row r="419">
-      <c r="E419" s="5"/>
-    </row>
-    <row r="420">
-      <c r="E420" s="5"/>
-    </row>
-    <row r="421">
-      <c r="E421" s="5"/>
-    </row>
-    <row r="422">
-      <c r="E422" s="5"/>
-    </row>
-    <row r="423">
-      <c r="E423" s="5"/>
-    </row>
-    <row r="424">
-      <c r="E424" s="5"/>
-    </row>
-    <row r="425">
-      <c r="E425" s="5"/>
-    </row>
-    <row r="426">
-      <c r="E426" s="5"/>
-    </row>
-    <row r="427">
-      <c r="E427" s="5"/>
-    </row>
-    <row r="428">
-      <c r="E428" s="5"/>
-    </row>
-    <row r="429">
-      <c r="E429" s="5"/>
-    </row>
-    <row r="430">
-      <c r="E430" s="5"/>
-    </row>
-    <row r="431">
-      <c r="E431" s="5"/>
-    </row>
-    <row r="432">
-      <c r="E432" s="5"/>
-    </row>
-    <row r="433">
-      <c r="E433" s="5"/>
-    </row>
-    <row r="434">
-      <c r="E434" s="5"/>
-    </row>
-    <row r="435">
-      <c r="E435" s="5"/>
-    </row>
-    <row r="436">
-      <c r="E436" s="5"/>
-    </row>
-    <row r="437">
-      <c r="E437" s="5"/>
-    </row>
-    <row r="438">
-      <c r="E438" s="5"/>
-    </row>
-    <row r="439">
-      <c r="E439" s="5"/>
-    </row>
-    <row r="440">
-      <c r="E440" s="5"/>
-    </row>
-    <row r="441">
-      <c r="E441" s="5"/>
-    </row>
-    <row r="442">
-      <c r="E442" s="5"/>
-    </row>
-    <row r="443">
-      <c r="E443" s="5"/>
-    </row>
-    <row r="444">
-      <c r="E444" s="5"/>
-    </row>
-    <row r="445">
-      <c r="E445" s="5"/>
-    </row>
-    <row r="446">
-      <c r="E446" s="5"/>
-    </row>
-    <row r="447">
-      <c r="E447" s="5"/>
-    </row>
-    <row r="448">
-      <c r="E448" s="5"/>
-    </row>
-    <row r="449">
-      <c r="E449" s="5"/>
-    </row>
-    <row r="450">
-      <c r="E450" s="5"/>
-    </row>
-    <row r="451">
-      <c r="E451" s="5"/>
-    </row>
-    <row r="452">
-      <c r="E452" s="5"/>
-    </row>
-    <row r="453">
-      <c r="E453" s="5"/>
-    </row>
-    <row r="454">
-      <c r="E454" s="5"/>
-    </row>
-    <row r="455">
-      <c r="E455" s="5"/>
-    </row>
-    <row r="456">
-      <c r="E456" s="5"/>
-    </row>
-    <row r="457">
-      <c r="E457" s="5"/>
-    </row>
-    <row r="458">
-      <c r="E458" s="5"/>
-    </row>
-    <row r="459">
-      <c r="E459" s="5"/>
-    </row>
-    <row r="460">
-      <c r="E460" s="5"/>
-    </row>
-    <row r="461">
-      <c r="E461" s="5"/>
-    </row>
-    <row r="462">
-      <c r="E462" s="5"/>
-    </row>
-    <row r="463">
-      <c r="E463" s="5"/>
-    </row>
-    <row r="464">
-      <c r="E464" s="5"/>
-    </row>
-    <row r="465">
-      <c r="E465" s="5"/>
-    </row>
-    <row r="466">
-      <c r="E466" s="5"/>
-    </row>
-    <row r="467">
-      <c r="E467" s="5"/>
-    </row>
-    <row r="468">
-      <c r="E468" s="5"/>
-    </row>
-    <row r="469">
-      <c r="E469" s="5"/>
-    </row>
-    <row r="470">
-      <c r="E470" s="5"/>
-    </row>
-    <row r="471">
-      <c r="E471" s="5"/>
-    </row>
-    <row r="472">
-      <c r="E472" s="5"/>
-    </row>
-    <row r="473">
-      <c r="E473" s="5"/>
-    </row>
-    <row r="474">
-      <c r="E474" s="5"/>
-    </row>
-    <row r="475">
-      <c r="E475" s="5"/>
-    </row>
-    <row r="476">
-      <c r="E476" s="5"/>
-    </row>
-    <row r="477">
-      <c r="E477" s="5"/>
-    </row>
-    <row r="478">
-      <c r="E478" s="5"/>
-    </row>
-    <row r="479">
-      <c r="E479" s="5"/>
-    </row>
-    <row r="480">
-      <c r="E480" s="5"/>
-    </row>
-    <row r="481">
-      <c r="E481" s="5"/>
-    </row>
-    <row r="482">
-      <c r="E482" s="5"/>
-    </row>
-    <row r="483">
-      <c r="E483" s="5"/>
-    </row>
-    <row r="484">
-      <c r="E484" s="5"/>
-    </row>
-    <row r="485">
-      <c r="E485" s="5"/>
-    </row>
-    <row r="486">
-      <c r="E486" s="5"/>
-    </row>
-    <row r="487">
-      <c r="E487" s="5"/>
-    </row>
-    <row r="488">
-      <c r="E488" s="5"/>
-    </row>
-    <row r="489">
-      <c r="E489" s="5"/>
-    </row>
-    <row r="490">
-      <c r="E490" s="5"/>
-    </row>
-    <row r="491">
-      <c r="E491" s="5"/>
-    </row>
-    <row r="492">
-      <c r="E492" s="5"/>
-    </row>
-    <row r="493">
-      <c r="E493" s="5"/>
-    </row>
-    <row r="494">
-      <c r="E494" s="5"/>
-    </row>
-    <row r="495">
-      <c r="E495" s="5"/>
-    </row>
-    <row r="496">
-      <c r="E496" s="5"/>
-    </row>
-    <row r="497">
-      <c r="E497" s="5"/>
-    </row>
-    <row r="498">
-      <c r="E498" s="5"/>
-    </row>
-    <row r="499">
-      <c r="E499" s="5"/>
-    </row>
-    <row r="500">
-      <c r="E500" s="5"/>
-    </row>
-    <row r="501">
-      <c r="E501" s="5"/>
-    </row>
-    <row r="502">
-      <c r="E502" s="5"/>
-    </row>
-    <row r="503">
-      <c r="E503" s="5"/>
-    </row>
-    <row r="504">
-      <c r="E504" s="5"/>
-    </row>
-    <row r="505">
-      <c r="E505" s="5"/>
-    </row>
-    <row r="506">
-      <c r="E506" s="5"/>
-    </row>
-    <row r="507">
-      <c r="E507" s="5"/>
-    </row>
-    <row r="508">
-      <c r="E508" s="5"/>
-    </row>
-    <row r="509">
-      <c r="E509" s="5"/>
-    </row>
-    <row r="510">
-      <c r="E510" s="5"/>
-    </row>
-    <row r="511">
-      <c r="E511" s="5"/>
-    </row>
-    <row r="512">
-      <c r="E512" s="5"/>
-    </row>
-    <row r="513">
-      <c r="E513" s="5"/>
-    </row>
-    <row r="514">
-      <c r="E514" s="5"/>
-    </row>
-    <row r="515">
-      <c r="E515" s="5"/>
-    </row>
-    <row r="516">
-      <c r="E516" s="5"/>
-    </row>
-    <row r="517">
-      <c r="E517" s="5"/>
-    </row>
-    <row r="518">
-      <c r="E518" s="5"/>
-    </row>
-    <row r="519">
-      <c r="E519" s="5"/>
-    </row>
-    <row r="520">
-      <c r="E520" s="5"/>
-    </row>
-    <row r="521">
-      <c r="E521" s="5"/>
-    </row>
-    <row r="522">
-      <c r="E522" s="5"/>
-    </row>
-    <row r="523">
-      <c r="E523" s="5"/>
-    </row>
-    <row r="524">
-      <c r="E524" s="5"/>
-    </row>
-    <row r="525">
-      <c r="E525" s="5"/>
-    </row>
-    <row r="526">
-      <c r="E526" s="5"/>
-    </row>
-    <row r="527">
-      <c r="E527" s="5"/>
-    </row>
-    <row r="528">
-      <c r="E528" s="5"/>
-    </row>
-    <row r="529">
-      <c r="E529" s="5"/>
-    </row>
-    <row r="530">
-      <c r="E530" s="5"/>
-    </row>
-    <row r="531">
-      <c r="E531" s="5"/>
-    </row>
-    <row r="532">
-      <c r="E532" s="5"/>
-    </row>
-    <row r="533">
-      <c r="E533" s="5"/>
-    </row>
-    <row r="534">
-      <c r="E534" s="5"/>
-    </row>
-    <row r="535">
-      <c r="E535" s="5"/>
-    </row>
-    <row r="536">
-      <c r="E536" s="5"/>
-    </row>
-    <row r="537">
-      <c r="E537" s="5"/>
-    </row>
-    <row r="538">
-      <c r="E538" s="5"/>
-    </row>
-    <row r="539">
-      <c r="E539" s="5"/>
-    </row>
-    <row r="540">
-      <c r="E540" s="5"/>
-    </row>
-    <row r="541">
-      <c r="E541" s="5"/>
-    </row>
-    <row r="542">
-      <c r="E542" s="5"/>
-    </row>
-    <row r="543">
-      <c r="E543" s="5"/>
-    </row>
-    <row r="544">
-      <c r="E544" s="5"/>
-    </row>
-    <row r="545">
-      <c r="E545" s="5"/>
-    </row>
-    <row r="546">
-      <c r="E546" s="5"/>
-    </row>
-    <row r="547">
-      <c r="E547" s="5"/>
-    </row>
-    <row r="548">
-      <c r="E548" s="5"/>
-    </row>
-    <row r="549">
-      <c r="E549" s="5"/>
-    </row>
-    <row r="550">
-      <c r="E550" s="5"/>
-    </row>
-    <row r="551">
-      <c r="E551" s="5"/>
-    </row>
-    <row r="552">
-      <c r="E552" s="5"/>
-    </row>
-    <row r="553">
-      <c r="E553" s="5"/>
-    </row>
-    <row r="554">
-      <c r="E554" s="5"/>
-    </row>
-    <row r="555">
-      <c r="E555" s="5"/>
-    </row>
-    <row r="556">
-      <c r="E556" s="5"/>
-    </row>
-    <row r="557">
-      <c r="E557" s="5"/>
-    </row>
-    <row r="558">
-      <c r="E558" s="5"/>
-    </row>
-    <row r="559">
-      <c r="E559" s="5"/>
-    </row>
-    <row r="560">
-      <c r="E560" s="5"/>
-    </row>
-    <row r="561">
-      <c r="E561" s="5"/>
-    </row>
-    <row r="562">
-      <c r="E562" s="5"/>
-    </row>
-    <row r="563">
-      <c r="E563" s="5"/>
-    </row>
-    <row r="564">
-      <c r="E564" s="5"/>
-    </row>
-    <row r="565">
-      <c r="E565" s="5"/>
-    </row>
-    <row r="566">
-      <c r="E566" s="5"/>
-    </row>
-    <row r="567">
-      <c r="E567" s="5"/>
-    </row>
-    <row r="568">
-      <c r="E568" s="5"/>
-    </row>
-    <row r="569">
-      <c r="E569" s="5"/>
-    </row>
-    <row r="570">
-      <c r="E570" s="5"/>
-    </row>
-    <row r="571">
-      <c r="E571" s="5"/>
-    </row>
-    <row r="572">
-      <c r="E572" s="5"/>
-    </row>
-    <row r="573">
-      <c r="E573" s="5"/>
-    </row>
-    <row r="574">
-      <c r="E574" s="5"/>
-    </row>
-    <row r="575">
-      <c r="E575" s="5"/>
-    </row>
-    <row r="576">
-      <c r="E576" s="5"/>
-    </row>
-    <row r="577">
-      <c r="E577" s="5"/>
-    </row>
-    <row r="578">
-      <c r="E578" s="5"/>
-    </row>
-    <row r="579">
-      <c r="E579" s="5"/>
-    </row>
-    <row r="580">
-      <c r="E580" s="5"/>
-    </row>
-    <row r="581">
-      <c r="E581" s="5"/>
-    </row>
-    <row r="582">
-      <c r="E582" s="5"/>
-    </row>
-    <row r="583">
-      <c r="E583" s="5"/>
-    </row>
-    <row r="584">
-      <c r="E584" s="5"/>
-    </row>
-    <row r="585">
-      <c r="E585" s="5"/>
-    </row>
-    <row r="586">
-      <c r="E586" s="5"/>
-    </row>
-    <row r="587">
-      <c r="E587" s="5"/>
-    </row>
-    <row r="588">
-      <c r="E588" s="5"/>
-    </row>
-    <row r="589">
-      <c r="E589" s="5"/>
-    </row>
-    <row r="590">
-      <c r="E590" s="5"/>
-    </row>
-    <row r="591">
-      <c r="E591" s="5"/>
-    </row>
-    <row r="592">
-      <c r="E592" s="5"/>
-    </row>
-    <row r="593">
-      <c r="E593" s="5"/>
-    </row>
-    <row r="594">
-      <c r="E594" s="5"/>
-    </row>
-    <row r="595">
-      <c r="E595" s="5"/>
-    </row>
-    <row r="596">
-      <c r="E596" s="5"/>
-    </row>
-    <row r="597">
-      <c r="E597" s="5"/>
-    </row>
-    <row r="598">
-      <c r="E598" s="5"/>
-    </row>
-    <row r="599">
-      <c r="E599" s="5"/>
-    </row>
-    <row r="600">
-      <c r="E600" s="5"/>
-    </row>
-    <row r="601">
-      <c r="E601" s="5"/>
-    </row>
-    <row r="602">
-      <c r="E602" s="5"/>
-    </row>
-    <row r="603">
-      <c r="E603" s="5"/>
-    </row>
-    <row r="604">
-      <c r="E604" s="5"/>
-    </row>
-    <row r="605">
-      <c r="E605" s="5"/>
-    </row>
-    <row r="606">
-      <c r="E606" s="5"/>
-    </row>
-    <row r="607">
-      <c r="E607" s="5"/>
-    </row>
-    <row r="608">
-      <c r="E608" s="5"/>
-    </row>
-    <row r="609">
-      <c r="E609" s="5"/>
-    </row>
-    <row r="610">
-      <c r="E610" s="5"/>
-    </row>
-    <row r="611">
-      <c r="E611" s="5"/>
-    </row>
-    <row r="612">
-      <c r="E612" s="5"/>
-    </row>
-    <row r="613">
-      <c r="E613" s="5"/>
-    </row>
-    <row r="614">
-      <c r="E614" s="5"/>
-    </row>
-    <row r="615">
-      <c r="E615" s="5"/>
-    </row>
-    <row r="616">
-      <c r="E616" s="5"/>
-    </row>
-    <row r="617">
-      <c r="E617" s="5"/>
-    </row>
-    <row r="618">
-      <c r="E618" s="5"/>
-    </row>
-    <row r="619">
-      <c r="E619" s="5"/>
-    </row>
-    <row r="620">
-      <c r="E620" s="5"/>
-    </row>
-    <row r="621">
-      <c r="E621" s="5"/>
-    </row>
-    <row r="622">
-      <c r="E622" s="5"/>
-    </row>
-    <row r="623">
-      <c r="E623" s="5"/>
-    </row>
-    <row r="624">
-      <c r="E624" s="5"/>
-    </row>
-    <row r="625">
-      <c r="E625" s="5"/>
-    </row>
-    <row r="626">
-      <c r="E626" s="5"/>
-    </row>
-    <row r="627">
-      <c r="E627" s="5"/>
-    </row>
-    <row r="628">
-      <c r="E628" s="5"/>
-    </row>
-    <row r="629">
-      <c r="E629" s="5"/>
-    </row>
-    <row r="630">
-      <c r="E630" s="5"/>
-    </row>
-    <row r="631">
-      <c r="E631" s="5"/>
-    </row>
-    <row r="632">
-      <c r="E632" s="5"/>
-    </row>
-    <row r="633">
-      <c r="E633" s="5"/>
-    </row>
-    <row r="634">
-      <c r="E634" s="5"/>
-    </row>
-    <row r="635">
-      <c r="E635" s="5"/>
-    </row>
-    <row r="636">
-      <c r="E636" s="5"/>
-    </row>
-    <row r="637">
-      <c r="E637" s="5"/>
-    </row>
-    <row r="638">
-      <c r="E638" s="5"/>
-    </row>
-    <row r="639">
-      <c r="E639" s="5"/>
-    </row>
-    <row r="640">
-      <c r="E640" s="5"/>
-    </row>
-    <row r="641">
-      <c r="E641" s="5"/>
-    </row>
-    <row r="642">
-      <c r="E642" s="5"/>
-    </row>
-    <row r="643">
-      <c r="E643" s="5"/>
-    </row>
-    <row r="644">
-      <c r="E644" s="5"/>
-    </row>
-    <row r="645">
-      <c r="E645" s="5"/>
-    </row>
-    <row r="646">
-      <c r="E646" s="5"/>
-    </row>
-    <row r="647">
-      <c r="E647" s="5"/>
-    </row>
-    <row r="648">
-      <c r="E648" s="5"/>
-    </row>
-    <row r="649">
-      <c r="E649" s="5"/>
-    </row>
-    <row r="650">
-      <c r="E650" s="5"/>
-    </row>
-    <row r="651">
-      <c r="E651" s="5"/>
-    </row>
-    <row r="652">
-      <c r="E652" s="5"/>
-    </row>
-    <row r="653">
-      <c r="E653" s="5"/>
-    </row>
-    <row r="654">
-      <c r="E654" s="5"/>
-    </row>
-    <row r="655">
-      <c r="E655" s="5"/>
-    </row>
-    <row r="656">
-      <c r="E656" s="5"/>
-    </row>
-    <row r="657">
-      <c r="E657" s="5"/>
-    </row>
-    <row r="658">
-      <c r="E658" s="5"/>
-    </row>
-    <row r="659">
-      <c r="E659" s="5"/>
-    </row>
-    <row r="660">
-      <c r="E660" s="5"/>
-    </row>
-    <row r="661">
-      <c r="E661" s="5"/>
-    </row>
-    <row r="662">
-      <c r="E662" s="5"/>
-    </row>
-    <row r="663">
-      <c r="E663" s="5"/>
-    </row>
-    <row r="664">
-      <c r="E664" s="5"/>
-    </row>
-    <row r="665">
-      <c r="E665" s="5"/>
-    </row>
-    <row r="666">
-      <c r="E666" s="5"/>
-    </row>
-    <row r="667">
-      <c r="E667" s="5"/>
-    </row>
-    <row r="668">
-      <c r="E668" s="5"/>
-    </row>
-    <row r="669">
-      <c r="E669" s="5"/>
-    </row>
-    <row r="670">
-      <c r="E670" s="5"/>
-    </row>
-    <row r="671">
-      <c r="E671" s="5"/>
-    </row>
-    <row r="672">
-      <c r="E672" s="5"/>
-    </row>
-    <row r="673">
-      <c r="E673" s="5"/>
-    </row>
-    <row r="674">
-      <c r="E674" s="5"/>
-    </row>
-    <row r="675">
-      <c r="E675" s="5"/>
-    </row>
-    <row r="676">
-      <c r="E676" s="5"/>
-    </row>
-    <row r="677">
-      <c r="E677" s="5"/>
-    </row>
-    <row r="678">
-      <c r="E678" s="5"/>
-    </row>
-    <row r="679">
-      <c r="E679" s="5"/>
-    </row>
-    <row r="680">
-      <c r="E680" s="5"/>
-    </row>
-    <row r="681">
-      <c r="E681" s="5"/>
-    </row>
-    <row r="682">
-      <c r="E682" s="5"/>
-    </row>
-    <row r="683">
-      <c r="E683" s="5"/>
-    </row>
-    <row r="684">
-      <c r="E684" s="5"/>
-    </row>
-    <row r="685">
-      <c r="E685" s="5"/>
-    </row>
-    <row r="686">
-      <c r="E686" s="5"/>
-    </row>
-    <row r="687">
-      <c r="E687" s="5"/>
-    </row>
-    <row r="688">
-      <c r="E688" s="5"/>
-    </row>
-    <row r="689">
-      <c r="E689" s="5"/>
-    </row>
-    <row r="690">
-      <c r="E690" s="5"/>
-    </row>
-    <row r="691">
-      <c r="E691" s="5"/>
-    </row>
-    <row r="692">
-      <c r="E692" s="5"/>
-    </row>
-    <row r="693">
-      <c r="E693" s="5"/>
-    </row>
-    <row r="694">
-      <c r="E694" s="5"/>
-    </row>
-    <row r="695">
-      <c r="E695" s="5"/>
-    </row>
-    <row r="696">
-      <c r="E696" s="5"/>
-    </row>
-    <row r="697">
-      <c r="E697" s="5"/>
-    </row>
-    <row r="698">
-      <c r="E698" s="5"/>
-    </row>
-    <row r="699">
-      <c r="E699" s="5"/>
-    </row>
-    <row r="700">
-      <c r="E700" s="5"/>
-    </row>
-    <row r="701">
-      <c r="E701" s="5"/>
-    </row>
-    <row r="702">
-      <c r="E702" s="5"/>
-    </row>
-    <row r="703">
-      <c r="E703" s="5"/>
-    </row>
-    <row r="704">
-      <c r="E704" s="5"/>
-    </row>
-    <row r="705">
-      <c r="E705" s="5"/>
-    </row>
-    <row r="706">
-      <c r="E706" s="5"/>
-    </row>
-    <row r="707">
-      <c r="E707" s="5"/>
-    </row>
-    <row r="708">
-      <c r="E708" s="5"/>
-    </row>
-    <row r="709">
-      <c r="E709" s="5"/>
-    </row>
-    <row r="710">
-      <c r="E710" s="5"/>
-    </row>
-    <row r="711">
-      <c r="E711" s="5"/>
-    </row>
-    <row r="712">
-      <c r="E712" s="5"/>
-    </row>
-    <row r="713">
-      <c r="E713" s="5"/>
-    </row>
-    <row r="714">
-      <c r="E714" s="5"/>
-    </row>
-    <row r="715">
-      <c r="E715" s="5"/>
-    </row>
-    <row r="716">
-      <c r="E716" s="5"/>
-    </row>
-    <row r="717">
-      <c r="E717" s="5"/>
-    </row>
-    <row r="718">
-      <c r="E718" s="5"/>
-    </row>
-    <row r="719">
-      <c r="E719" s="5"/>
-    </row>
-    <row r="720">
-      <c r="E720" s="5"/>
-    </row>
-    <row r="721">
-      <c r="E721" s="5"/>
-    </row>
-    <row r="722">
-      <c r="E722" s="5"/>
-    </row>
-    <row r="723">
-      <c r="E723" s="5"/>
-    </row>
-    <row r="724">
-      <c r="E724" s="5"/>
-    </row>
-    <row r="725">
-      <c r="E725" s="5"/>
-    </row>
-    <row r="726">
-      <c r="E726" s="5"/>
-    </row>
-    <row r="727">
-      <c r="E727" s="5"/>
-    </row>
-    <row r="728">
-      <c r="E728" s="5"/>
-    </row>
-    <row r="729">
-      <c r="E729" s="5"/>
-    </row>
-    <row r="730">
-      <c r="E730" s="5"/>
-    </row>
-    <row r="731">
-      <c r="E731" s="5"/>
-    </row>
-    <row r="732">
-      <c r="E732" s="5"/>
-    </row>
-    <row r="733">
-      <c r="E733" s="5"/>
-    </row>
-    <row r="734">
-      <c r="E734" s="5"/>
-    </row>
-    <row r="735">
-      <c r="E735" s="5"/>
-    </row>
-    <row r="736">
-      <c r="E736" s="5"/>
-    </row>
-    <row r="737">
-      <c r="E737" s="5"/>
-    </row>
-    <row r="738">
-      <c r="E738" s="5"/>
-    </row>
-    <row r="739">
-      <c r="E739" s="5"/>
-    </row>
-    <row r="740">
-      <c r="E740" s="5"/>
-    </row>
-    <row r="741">
-      <c r="E741" s="5"/>
-    </row>
-    <row r="742">
-      <c r="E742" s="5"/>
-    </row>
-    <row r="743">
-      <c r="E743" s="5"/>
-    </row>
-    <row r="744">
-      <c r="E744" s="5"/>
-    </row>
-    <row r="745">
-      <c r="E745" s="5"/>
-    </row>
-    <row r="746">
-      <c r="E746" s="5"/>
-    </row>
-    <row r="747">
-      <c r="E747" s="5"/>
-    </row>
-    <row r="748">
-      <c r="E748" s="5"/>
-    </row>
-    <row r="749">
-      <c r="E749" s="5"/>
-    </row>
-    <row r="750">
-      <c r="E750" s="5"/>
-    </row>
-    <row r="751">
-      <c r="E751" s="5"/>
-    </row>
-    <row r="752">
-      <c r="E752" s="5"/>
-    </row>
-    <row r="753">
-      <c r="E753" s="5"/>
-    </row>
-    <row r="754">
-      <c r="E754" s="5"/>
-    </row>
-    <row r="755">
-      <c r="E755" s="5"/>
-    </row>
-    <row r="756">
-      <c r="E756" s="5"/>
-    </row>
-    <row r="757">
-      <c r="E757" s="5"/>
-    </row>
-    <row r="758">
-      <c r="E758" s="5"/>
-    </row>
-    <row r="759">
-      <c r="E759" s="5"/>
-    </row>
-    <row r="760">
-      <c r="E760" s="5"/>
-    </row>
-    <row r="761">
-      <c r="E761" s="5"/>
-    </row>
-    <row r="762">
-      <c r="E762" s="5"/>
-    </row>
-    <row r="763">
-      <c r="E763" s="5"/>
-    </row>
-    <row r="764">
-      <c r="E764" s="5"/>
-    </row>
-    <row r="765">
-      <c r="E765" s="5"/>
-    </row>
-    <row r="766">
-      <c r="E766" s="5"/>
-    </row>
-    <row r="767">
-      <c r="E767" s="5"/>
-    </row>
-    <row r="768">
-      <c r="E768" s="5"/>
-    </row>
-    <row r="769">
-      <c r="E769" s="5"/>
-    </row>
-    <row r="770">
-      <c r="E770" s="5"/>
-    </row>
-    <row r="771">
-      <c r="E771" s="5"/>
-    </row>
-    <row r="772">
-      <c r="E772" s="5"/>
-    </row>
-    <row r="773">
-      <c r="E773" s="5"/>
-    </row>
-    <row r="774">
-      <c r="E774" s="5"/>
-    </row>
-    <row r="775">
-      <c r="E775" s="5"/>
-    </row>
-    <row r="776">
-      <c r="E776" s="5"/>
-    </row>
-    <row r="777">
-      <c r="E777" s="5"/>
-    </row>
-    <row r="778">
-      <c r="E778" s="5"/>
-    </row>
-    <row r="779">
-      <c r="E779" s="5"/>
-    </row>
-    <row r="780">
-      <c r="E780" s="5"/>
-    </row>
-    <row r="781">
-      <c r="E781" s="5"/>
-    </row>
-    <row r="782">
-      <c r="E782" s="5"/>
-    </row>
-    <row r="783">
-      <c r="E783" s="5"/>
-    </row>
-    <row r="784">
-      <c r="E784" s="5"/>
-    </row>
-    <row r="785">
-      <c r="E785" s="5"/>
-    </row>
-    <row r="786">
-      <c r="E786" s="5"/>
-    </row>
-    <row r="787">
-      <c r="E787" s="5"/>
-    </row>
-    <row r="788">
-      <c r="E788" s="5"/>
-    </row>
-    <row r="789">
-      <c r="E789" s="5"/>
-    </row>
-    <row r="790">
-      <c r="E790" s="5"/>
-    </row>
-    <row r="791">
-      <c r="E791" s="5"/>
-    </row>
-    <row r="792">
-      <c r="E792" s="5"/>
-    </row>
-    <row r="793">
-      <c r="E793" s="5"/>
-    </row>
-    <row r="794">
-      <c r="E794" s="5"/>
-    </row>
-    <row r="795">
-      <c r="E795" s="5"/>
-    </row>
-    <row r="796">
-      <c r="E796" s="5"/>
-    </row>
-    <row r="797">
-      <c r="E797" s="5"/>
-    </row>
-    <row r="798">
-      <c r="E798" s="5"/>
-    </row>
-    <row r="799">
-      <c r="E799" s="5"/>
-    </row>
-    <row r="800">
-      <c r="E800" s="5"/>
-    </row>
-    <row r="801">
-      <c r="E801" s="5"/>
-    </row>
-    <row r="802">
-      <c r="E802" s="5"/>
-    </row>
-    <row r="803">
-      <c r="E803" s="5"/>
-    </row>
-    <row r="804">
-      <c r="E804" s="5"/>
-    </row>
-    <row r="805">
-      <c r="E805" s="5"/>
-    </row>
-    <row r="806">
-      <c r="E806" s="5"/>
-    </row>
-    <row r="807">
-      <c r="E807" s="5"/>
-    </row>
-    <row r="808">
-      <c r="E808" s="5"/>
-    </row>
-    <row r="809">
-      <c r="E809" s="5"/>
-    </row>
-    <row r="810">
-      <c r="E810" s="5"/>
-    </row>
-    <row r="811">
-      <c r="E811" s="5"/>
-    </row>
-    <row r="812">
-      <c r="E812" s="5"/>
-    </row>
-    <row r="813">
-      <c r="E813" s="5"/>
-    </row>
-    <row r="814">
-      <c r="E814" s="5"/>
-    </row>
-    <row r="815">
-      <c r="E815" s="5"/>
-    </row>
-    <row r="816">
-      <c r="E816" s="5"/>
-    </row>
-    <row r="817">
-      <c r="E817" s="5"/>
-    </row>
-    <row r="818">
-      <c r="E818" s="5"/>
-    </row>
-    <row r="819">
-      <c r="E819" s="5"/>
-    </row>
-    <row r="820">
-      <c r="E820" s="5"/>
-    </row>
-    <row r="821">
-      <c r="E821" s="5"/>
-    </row>
-    <row r="822">
-      <c r="E822" s="5"/>
-    </row>
-    <row r="823">
-      <c r="E823" s="5"/>
-    </row>
-    <row r="824">
-      <c r="E824" s="5"/>
-    </row>
-    <row r="825">
-      <c r="E825" s="5"/>
-    </row>
-    <row r="826">
-      <c r="E826" s="5"/>
-    </row>
-    <row r="827">
-      <c r="E827" s="5"/>
-    </row>
-    <row r="828">
-      <c r="E828" s="5"/>
-    </row>
-    <row r="829">
-      <c r="E829" s="5"/>
-    </row>
-    <row r="830">
-      <c r="E830" s="5"/>
-    </row>
-    <row r="831">
-      <c r="E831" s="5"/>
-    </row>
-    <row r="832">
-      <c r="E832" s="5"/>
-    </row>
-    <row r="833">
-      <c r="E833" s="5"/>
-    </row>
-    <row r="834">
-      <c r="E834" s="5"/>
-    </row>
-    <row r="835">
-      <c r="E835" s="5"/>
-    </row>
-    <row r="836">
-      <c r="E836" s="5"/>
-    </row>
-    <row r="837">
-      <c r="E837" s="5"/>
-    </row>
-    <row r="838">
-      <c r="E838" s="5"/>
-    </row>
-    <row r="839">
-      <c r="E839" s="5"/>
-    </row>
-    <row r="840">
-      <c r="E840" s="5"/>
-    </row>
-    <row r="841">
-      <c r="E841" s="5"/>
-    </row>
-    <row r="842">
-      <c r="E842" s="5"/>
-    </row>
-    <row r="843">
-      <c r="E843" s="5"/>
-    </row>
-    <row r="844">
-      <c r="E844" s="5"/>
-    </row>
-    <row r="845">
-      <c r="E845" s="5"/>
-    </row>
-    <row r="846">
-      <c r="E846" s="5"/>
-    </row>
-    <row r="847">
-      <c r="E847" s="5"/>
-    </row>
-    <row r="848">
-      <c r="E848" s="5"/>
-    </row>
-    <row r="849">
-      <c r="E849" s="5"/>
-    </row>
-    <row r="850">
-      <c r="E850" s="5"/>
-    </row>
-    <row r="851">
-      <c r="E851" s="5"/>
-    </row>
-    <row r="852">
-      <c r="E852" s="5"/>
-    </row>
-    <row r="853">
-      <c r="E853" s="5"/>
-    </row>
-    <row r="854">
-      <c r="E854" s="5"/>
-    </row>
-    <row r="855">
-      <c r="E855" s="5"/>
-    </row>
-    <row r="856">
-      <c r="E856" s="5"/>
-    </row>
-    <row r="857">
-      <c r="E857" s="5"/>
-    </row>
-    <row r="858">
-      <c r="E858" s="5"/>
-    </row>
-    <row r="859">
-      <c r="E859" s="5"/>
-    </row>
-    <row r="860">
-      <c r="E860" s="5"/>
-    </row>
-    <row r="861">
-      <c r="E861" s="5"/>
-    </row>
-    <row r="862">
-      <c r="E862" s="5"/>
-    </row>
-    <row r="863">
-      <c r="E863" s="5"/>
-    </row>
-    <row r="864">
-      <c r="E864" s="5"/>
-    </row>
-    <row r="865">
-      <c r="E865" s="5"/>
-    </row>
-    <row r="866">
-      <c r="E866" s="5"/>
-    </row>
-    <row r="867">
-      <c r="E867" s="5"/>
-    </row>
-    <row r="868">
-      <c r="E868" s="5"/>
-    </row>
-    <row r="869">
-      <c r="E869" s="5"/>
-    </row>
-    <row r="870">
-      <c r="E870" s="5"/>
-    </row>
-    <row r="871">
-      <c r="E871" s="5"/>
-    </row>
-    <row r="872">
-      <c r="E872" s="5"/>
-    </row>
-    <row r="873">
-      <c r="E873" s="5"/>
-    </row>
-    <row r="874">
-      <c r="E874" s="5"/>
-    </row>
-    <row r="875">
-      <c r="E875" s="5"/>
-    </row>
-    <row r="876">
-      <c r="E876" s="5"/>
-    </row>
-    <row r="877">
-      <c r="E877" s="5"/>
-    </row>
-    <row r="878">
-      <c r="E878" s="5"/>
-    </row>
-    <row r="879">
-      <c r="E879" s="5"/>
-    </row>
-    <row r="880">
-      <c r="E880" s="5"/>
-    </row>
-    <row r="881">
-      <c r="E881" s="5"/>
-    </row>
-    <row r="882">
-      <c r="E882" s="5"/>
-    </row>
-    <row r="883">
-      <c r="E883" s="5"/>
-    </row>
-    <row r="884">
-      <c r="E884" s="5"/>
-    </row>
-    <row r="885">
-      <c r="E885" s="5"/>
-    </row>
-    <row r="886">
-      <c r="E886" s="5"/>
-    </row>
-    <row r="887">
-      <c r="E887" s="5"/>
-    </row>
-    <row r="888">
-      <c r="E888" s="5"/>
-    </row>
-    <row r="889">
-      <c r="E889" s="5"/>
-    </row>
-    <row r="890">
-      <c r="E890" s="5"/>
-    </row>
-    <row r="891">
-      <c r="E891" s="5"/>
-    </row>
-    <row r="892">
-      <c r="E892" s="5"/>
-    </row>
-    <row r="893">
-      <c r="E893" s="5"/>
-    </row>
-    <row r="894">
-      <c r="E894" s="5"/>
-    </row>
-    <row r="895">
-      <c r="E895" s="5"/>
-    </row>
-    <row r="896">
-      <c r="E896" s="5"/>
-    </row>
-    <row r="897">
-      <c r="E897" s="5"/>
-    </row>
-    <row r="898">
-      <c r="E898" s="5"/>
-    </row>
-    <row r="899">
-      <c r="E899" s="5"/>
-    </row>
-    <row r="900">
-      <c r="E900" s="5"/>
-    </row>
-    <row r="901">
-      <c r="E901" s="5"/>
-    </row>
-    <row r="902">
-      <c r="E902" s="5"/>
-    </row>
-    <row r="903">
-      <c r="E903" s="5"/>
-    </row>
-    <row r="904">
-      <c r="E904" s="5"/>
-    </row>
-    <row r="905">
-      <c r="E905" s="5"/>
-    </row>
-    <row r="906">
-      <c r="E906" s="5"/>
-    </row>
-    <row r="907">
-      <c r="E907" s="5"/>
-    </row>
-    <row r="908">
-      <c r="E908" s="5"/>
-    </row>
-    <row r="909">
-      <c r="E909" s="5"/>
-    </row>
-    <row r="910">
-      <c r="E910" s="5"/>
-    </row>
-    <row r="911">
-      <c r="E911" s="5"/>
-    </row>
-    <row r="912">
-      <c r="E912" s="5"/>
-    </row>
-    <row r="913">
-      <c r="E913" s="5"/>
-    </row>
-    <row r="914">
-      <c r="E914" s="5"/>
-    </row>
-    <row r="915">
-      <c r="E915" s="5"/>
-    </row>
-    <row r="916">
-      <c r="E916" s="5"/>
-    </row>
-    <row r="917">
-      <c r="E917" s="5"/>
-    </row>
-    <row r="918">
-      <c r="E918" s="5"/>
-    </row>
-    <row r="919">
-      <c r="E919" s="5"/>
-    </row>
-    <row r="920">
-      <c r="E920" s="5"/>
-    </row>
-    <row r="921">
-      <c r="E921" s="5"/>
-    </row>
-    <row r="922">
-      <c r="E922" s="5"/>
-    </row>
-    <row r="923">
-      <c r="E923" s="5"/>
-    </row>
-    <row r="924">
-      <c r="E924" s="5"/>
-    </row>
-    <row r="925">
-      <c r="E925" s="5"/>
-    </row>
-    <row r="926">
-      <c r="E926" s="5"/>
-    </row>
-    <row r="927">
-      <c r="E927" s="5"/>
-    </row>
-    <row r="928">
-      <c r="E928" s="5"/>
-    </row>
-    <row r="929">
-      <c r="E929" s="5"/>
-    </row>
-    <row r="930">
-      <c r="E930" s="5"/>
-    </row>
-    <row r="931">
-      <c r="E931" s="5"/>
-    </row>
-    <row r="932">
-      <c r="E932" s="5"/>
-    </row>
-    <row r="933">
-      <c r="E933" s="5"/>
-    </row>
-    <row r="934">
-      <c r="E934" s="5"/>
-    </row>
-    <row r="935">
-      <c r="E935" s="5"/>
-    </row>
-    <row r="936">
-      <c r="E936" s="5"/>
-    </row>
-    <row r="937">
-      <c r="E937" s="5"/>
-    </row>
-    <row r="938">
-      <c r="E938" s="5"/>
-    </row>
-    <row r="939">
-      <c r="E939" s="5"/>
-    </row>
-    <row r="940">
-      <c r="E940" s="5"/>
-    </row>
-    <row r="941">
-      <c r="E941" s="5"/>
-    </row>
-    <row r="942">
-      <c r="E942" s="5"/>
-    </row>
-    <row r="943">
-      <c r="E943" s="5"/>
-    </row>
-    <row r="944">
-      <c r="E944" s="5"/>
-    </row>
-    <row r="945">
-      <c r="E945" s="5"/>
-    </row>
-    <row r="946">
-      <c r="E946" s="5"/>
-    </row>
-    <row r="947">
-      <c r="E947" s="5"/>
-    </row>
-    <row r="948">
-      <c r="E948" s="5"/>
-    </row>
-    <row r="949">
-      <c r="E949" s="5"/>
-    </row>
-    <row r="950">
-      <c r="E950" s="5"/>
-    </row>
-    <row r="951">
-      <c r="E951" s="5"/>
-    </row>
-    <row r="952">
-      <c r="E952" s="5"/>
-    </row>
-    <row r="953">
-      <c r="E953" s="5"/>
-    </row>
-    <row r="954">
-      <c r="E954" s="5"/>
-    </row>
-    <row r="955">
-      <c r="E955" s="5"/>
-    </row>
-    <row r="956">
-      <c r="E956" s="5"/>
-    </row>
-    <row r="957">
-      <c r="E957" s="5"/>
-    </row>
-    <row r="958">
-      <c r="E958" s="5"/>
-    </row>
-    <row r="959">
-      <c r="E959" s="5"/>
-    </row>
-    <row r="960">
-      <c r="E960" s="5"/>
-    </row>
-    <row r="961">
-      <c r="E961" s="5"/>
-    </row>
-    <row r="962">
-      <c r="E962" s="5"/>
-    </row>
-    <row r="963">
-      <c r="E963" s="5"/>
-    </row>
-    <row r="964">
-      <c r="E964" s="5"/>
-    </row>
-    <row r="965">
-      <c r="E965" s="5"/>
-    </row>
-    <row r="966">
-      <c r="E966" s="5"/>
-    </row>
-    <row r="967">
-      <c r="E967" s="5"/>
-    </row>
-    <row r="968">
-      <c r="E968" s="5"/>
-    </row>
-    <row r="969">
-      <c r="E969" s="5"/>
-    </row>
-    <row r="970">
-      <c r="E970" s="5"/>
-    </row>
-    <row r="971">
-      <c r="E971" s="5"/>
-    </row>
-    <row r="972">
-      <c r="E972" s="5"/>
-    </row>
-    <row r="973">
-      <c r="E973" s="5"/>
-    </row>
-    <row r="974">
-      <c r="E974" s="5"/>
-    </row>
-    <row r="975">
-      <c r="E975" s="5"/>
-    </row>
-    <row r="976">
-      <c r="E976" s="5"/>
-    </row>
-    <row r="977">
-      <c r="E977" s="5"/>
-    </row>
-    <row r="978">
-      <c r="E978" s="5"/>
-    </row>
-    <row r="979">
-      <c r="E979" s="5"/>
-    </row>
-    <row r="980">
-      <c r="E980" s="5"/>
-    </row>
-    <row r="981">
-      <c r="E981" s="5"/>
-    </row>
-    <row r="982">
-      <c r="E982" s="5"/>
-    </row>
-    <row r="983">
-      <c r="E983" s="5"/>
-    </row>
-    <row r="984">
-      <c r="E984" s="5"/>
-    </row>
-    <row r="985">
-      <c r="E985" s="5"/>
-    </row>
-    <row r="986">
-      <c r="E986" s="5"/>
-    </row>
-    <row r="987">
-      <c r="E987" s="5"/>
-    </row>
-    <row r="988">
-      <c r="E988" s="5"/>
-    </row>
-    <row r="989">
-      <c r="E989" s="5"/>
-    </row>
-    <row r="990">
-      <c r="E990" s="5"/>
-    </row>
-    <row r="991">
-      <c r="E991" s="5"/>
-    </row>
-    <row r="992">
-      <c r="E992" s="5"/>
-    </row>
-    <row r="993">
-      <c r="E993" s="5"/>
-    </row>
-    <row r="994">
-      <c r="E994" s="5"/>
-    </row>
-    <row r="995">
-      <c r="E995" s="5"/>
-    </row>
-    <row r="996">
-      <c r="E996" s="5"/>
-    </row>
-    <row r="997">
-      <c r="E997" s="5"/>
-    </row>
-    <row r="998">
-      <c r="E998" s="5"/>
-    </row>
-    <row r="999">
-      <c r="E999" s="5"/>
-    </row>
-    <row r="1000">
-      <c r="E1000" s="5"/>
-    </row>
-    <row r="1001">
-      <c r="E1001" s="5"/>
-    </row>
-    <row r="1002">
-      <c r="E1002" s="5"/>
-    </row>
-    <row r="1003">
-      <c r="E1003" s="5"/>
-    </row>
-    <row r="1004">
-      <c r="E1004" s="5"/>
-    </row>
-    <row r="1005">
-      <c r="E1005" s="5"/>
-    </row>
-    <row r="1006">
-      <c r="E1006" s="5"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -33128,10 +36090,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
@@ -33139,21 +36101,21 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
